--- a/Code/Results/Cases/Case_5_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_0/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.711888137291396</v>
+        <v>2.35559032627674</v>
       </c>
       <c r="C2">
-        <v>1.638181042816541</v>
+        <v>0.2678118413456616</v>
       </c>
       <c r="D2">
-        <v>0.007056924585058244</v>
+        <v>0.1091216820138072</v>
       </c>
       <c r="E2">
-        <v>0.4508068888626369</v>
+        <v>0.01580068485797392</v>
       </c>
       <c r="F2">
-        <v>2.722820040758648</v>
+        <v>7.314722087610562</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.171188326649713</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3287558711828069</v>
+        <v>0.1523344764472796</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5385940214452418</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1391801508383708</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.193547041800684</v>
+        <v>2.087799154902314</v>
       </c>
       <c r="C3">
-        <v>1.405202362308501</v>
+        <v>0.2284881144936435</v>
       </c>
       <c r="D3">
-        <v>0.0077900425352877</v>
+        <v>0.09504651655076657</v>
       </c>
       <c r="E3">
-        <v>0.3856362621673668</v>
+        <v>0.01605900168555108</v>
       </c>
       <c r="F3">
-        <v>2.390914527366874</v>
+        <v>6.650909864597679</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.05232590708556</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2812203949172556</v>
+        <v>0.1440413906913065</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4720710150238006</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1281286938623794</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.880813851125424</v>
+        <v>1.929232378991173</v>
       </c>
       <c r="C4">
-        <v>1.265212373741804</v>
+        <v>0.2049991364357311</v>
       </c>
       <c r="D4">
-        <v>0.008252305696336393</v>
+        <v>0.08657472489628759</v>
       </c>
       <c r="E4">
-        <v>0.3467023252171728</v>
+        <v>0.01622953875299604</v>
       </c>
       <c r="F4">
-        <v>2.195373621677689</v>
+        <v>6.25330820657959</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.9832732354579861</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2529367353106693</v>
+        <v>0.1390846401995987</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4326008851954199</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1217397680037351</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.754528483486411</v>
+        <v>1.865932792512638</v>
       </c>
       <c r="C5">
-        <v>1.208806849546249</v>
+        <v>0.1955681551650628</v>
       </c>
       <c r="D5">
-        <v>0.008443446698788826</v>
+        <v>0.08315790186546224</v>
       </c>
       <c r="E5">
-        <v>0.33106505049075</v>
+        <v>0.01630202813647119</v>
       </c>
       <c r="F5">
-        <v>2.117496100405589</v>
+        <v>6.093465030590096</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9560031412873187</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2416031671716823</v>
+        <v>0.1370943728555218</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4168233715345266</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1192278322780496</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.733622345342098</v>
+        <v>1.855497278940419</v>
       </c>
       <c r="C6">
-        <v>1.19947603786062</v>
+        <v>0.1940100081130538</v>
       </c>
       <c r="D6">
-        <v>0.008475345080598551</v>
+        <v>0.08259248336507596</v>
       </c>
       <c r="E6">
-        <v>0.3284811322125023</v>
+        <v>0.01631424566273032</v>
       </c>
       <c r="F6">
-        <v>2.104666462536969</v>
+        <v>6.067046043807238</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.951524249012131</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2397319048846285</v>
+        <v>0.1367655615815195</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4142209984152316</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1188160372018245</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.879106333205868</v>
+        <v>1.928373557521752</v>
       </c>
       <c r="C7">
-        <v>1.264449230027424</v>
+        <v>0.204871406027749</v>
       </c>
       <c r="D7">
-        <v>0.008254872636957789</v>
+        <v>0.08652850989602001</v>
       </c>
       <c r="E7">
-        <v>0.3464905632582074</v>
+        <v>0.01623050425254702</v>
       </c>
       <c r="F7">
-        <v>2.194316354205199</v>
+        <v>6.251144077765787</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9829020885599249</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2527831515866836</v>
+        <v>0.1390576841712203</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4323869101654552</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1217055304323225</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.531866242494516</v>
+        <v>2.261941380444284</v>
       </c>
       <c r="C8">
-        <v>1.557133072559566</v>
+        <v>0.2541016208173517</v>
       </c>
       <c r="D8">
-        <v>0.007307000771499261</v>
+        <v>0.1042285392201308</v>
       </c>
       <c r="E8">
-        <v>0.4280839741261033</v>
+        <v>0.01588727237780319</v>
       </c>
       <c r="F8">
-        <v>2.606495786802128</v>
+        <v>7.083560628167191</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.129313340775894</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3121557971029034</v>
+        <v>0.1494441918873477</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5153467119335744</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1352820880205243</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.868070922431514</v>
+        <v>2.97052405386637</v>
       </c>
       <c r="C9">
-        <v>2.162061134292856</v>
+        <v>0.3570828186005883</v>
       </c>
       <c r="D9">
-        <v>0.005560131407022384</v>
+        <v>0.1406650035607981</v>
       </c>
       <c r="E9">
-        <v>0.5989380350170279</v>
+        <v>0.01530925492609159</v>
       </c>
       <c r="F9">
-        <v>3.494166297035491</v>
+        <v>8.811814178649513</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1.453765610915596</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4375859250950285</v>
+        <v>0.1711072596970737</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6909430473254758</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1654725806789301</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.904288714526729</v>
+        <v>3.537205457451932</v>
       </c>
       <c r="C10">
-        <v>2.636502334663078</v>
+        <v>0.4386792960472121</v>
       </c>
       <c r="D10">
-        <v>0.004372544792152766</v>
+        <v>0.1690882819736714</v>
       </c>
       <c r="E10">
-        <v>0.7348694294519476</v>
+        <v>0.0149433928834255</v>
       </c>
       <c r="F10">
-        <v>4.21770246762722</v>
+        <v>10.16678091574946</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1.725056752739249</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5382854874250782</v>
+        <v>0.1881688451599857</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.8310615136401509</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1905064869016826</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.39320111578013</v>
+        <v>3.808496835633605</v>
       </c>
       <c r="C11">
-        <v>2.861983093159949</v>
+        <v>0.4776373046557865</v>
       </c>
       <c r="D11">
-        <v>0.003861485164152301</v>
+        <v>0.182538913887214</v>
       </c>
       <c r="E11">
-        <v>0.8000442017176681</v>
+        <v>0.01479002458507983</v>
       </c>
       <c r="F11">
-        <v>4.568782484849862</v>
+        <v>10.80886481992826</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1.858460833350918</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.586821431985868</v>
+        <v>0.1962748316099407</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.8980941097408675</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2026985336499649</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.581450806081307</v>
+        <v>3.9135210658132</v>
       </c>
       <c r="C12">
-        <v>2.949083096951369</v>
+        <v>0.4927099401286625</v>
       </c>
       <c r="D12">
-        <v>0.00367309190000964</v>
+        <v>0.1877233313484936</v>
       </c>
       <c r="E12">
-        <v>0.8253180520723191</v>
+        <v>0.01473386304271607</v>
       </c>
       <c r="F12">
-        <v>4.705553149095692</v>
+        <v>11.05641771951241</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1.910710671944059</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.6056848104771646</v>
+        <v>0.1994034518391032</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.9240395205282965</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2074495320444072</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.540758913504021</v>
+        <v>3.890794047222414</v>
       </c>
       <c r="C13">
-        <v>2.930242310654478</v>
+        <v>0.4894485489419083</v>
       </c>
       <c r="D13">
-        <v>0.003713419908959237</v>
+        <v>0.1866024437693596</v>
       </c>
       <c r="E13">
-        <v>0.8198464023525105</v>
+        <v>0.01474587252669801</v>
       </c>
       <c r="F13">
-        <v>4.675914895927349</v>
+        <v>11.00289399821338</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1.899375306367361</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.6015990470366148</v>
+        <v>0.1987268521868586</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.9184251617850805</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2064200239549621</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.408622418599009</v>
+        <v>3.81708908348935</v>
       </c>
       <c r="C14">
-        <v>2.869112366256843</v>
+        <v>0.4788705702430605</v>
       </c>
       <c r="D14">
-        <v>0.003845876821373606</v>
+        <v>0.1829635143970165</v>
       </c>
       <c r="E14">
-        <v>0.8021108622777149</v>
+        <v>0.01478536549644627</v>
       </c>
       <c r="F14">
-        <v>4.579953716873774</v>
+        <v>10.82913825543596</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1.862722823097229</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.588363039230039</v>
+        <v>0.1965309812872604</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.9002168379558242</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2030865952356464</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.328109405313398</v>
+        <v>3.772252580823647</v>
       </c>
       <c r="C15">
-        <v>2.83190276667176</v>
+        <v>0.4724347571417979</v>
       </c>
       <c r="D15">
-        <v>0.003927710962469577</v>
+        <v>0.1807469331868106</v>
       </c>
       <c r="E15">
-        <v>0.7913284185946878</v>
+        <v>0.0148098068460949</v>
       </c>
       <c r="F15">
-        <v>4.521694967355131</v>
+        <v>10.72330532033681</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1.840507565231519</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.5803216767830648</v>
+        <v>0.1951939474432862</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.8891397344239351</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2010628468015199</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.872737567039337</v>
+        <v>3.519776274497417</v>
       </c>
       <c r="C16">
-        <v>2.621987370085321</v>
+        <v>0.4361748425270662</v>
       </c>
       <c r="D16">
-        <v>0.00440660591181441</v>
+        <v>0.1682210445668204</v>
       </c>
       <c r="E16">
-        <v>0.7306864524450702</v>
+        <v>0.01495368168204347</v>
       </c>
       <c r="F16">
-        <v>4.195254251985773</v>
+        <v>10.12539480680664</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1.716563503956365</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.535175831087443</v>
+        <v>0.1876468115645125</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.8267542227087006</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1897273986223666</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.59825504213768</v>
+        <v>3.368580249627882</v>
       </c>
       <c r="C17">
-        <v>2.495896418395546</v>
+        <v>0.4144382371560482</v>
       </c>
       <c r="D17">
-        <v>0.004708463933169593</v>
+        <v>0.1606808221258262</v>
       </c>
       <c r="E17">
-        <v>0.6944132371733076</v>
+        <v>0.01504531350111327</v>
       </c>
       <c r="F17">
-        <v>4.001048449534807</v>
+        <v>9.76565142596462</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1.643279645481684</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.5082382131598209</v>
+        <v>0.1831114359932045</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.789384086966237</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1829916083635794</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.441988849928066</v>
+        <v>3.282863355502286</v>
       </c>
       <c r="C18">
-        <v>2.424258000159568</v>
+        <v>0.4021051998155372</v>
       </c>
       <c r="D18">
-        <v>0.004884763287280602</v>
+        <v>0.1563917970082827</v>
       </c>
       <c r="E18">
-        <v>0.6738560945993015</v>
+        <v>0.01509924459747225</v>
       </c>
       <c r="F18">
-        <v>3.891364479641936</v>
+        <v>9.561106876671943</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1.602048478618144</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.492994619916054</v>
+        <v>0.1805345898276158</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.7681935489272576</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1791917592544365</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.389340056096103</v>
+        <v>3.254045545228848</v>
       </c>
       <c r="C19">
-        <v>2.400145682389734</v>
+        <v>0.3979569810804833</v>
       </c>
       <c r="D19">
-        <v>0.004944890312594152</v>
+        <v>0.1549473878093721</v>
       </c>
       <c r="E19">
-        <v>0.6669453180510772</v>
+        <v>0.01511771449588339</v>
       </c>
       <c r="F19">
-        <v>3.854555695467582</v>
+        <v>9.492238815915158</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1.588238206713754</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4878738862330465</v>
+        <v>0.179667307515281</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.7610685207976644</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1779174594611135</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.627303768902607</v>
+        <v>3.384543909821787</v>
       </c>
       <c r="C20">
-        <v>2.509225184132788</v>
+        <v>0.4167342439391746</v>
       </c>
       <c r="D20">
-        <v>0.004676047336387379</v>
+        <v>0.1614784249418051</v>
       </c>
       <c r="E20">
-        <v>0.6982421404689489</v>
+        <v>0.01503543192260626</v>
       </c>
       <c r="F20">
-        <v>4.021508699463908</v>
+        <v>9.803696601022807</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1.650983688632294</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.5110792692907893</v>
+        <v>0.1835908811907458</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.7933301704355387</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1837008204801123</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.447344439581741</v>
+        <v>3.838672719207523</v>
       </c>
       <c r="C21">
-        <v>2.887018210317308</v>
+        <v>0.481968399018939</v>
       </c>
       <c r="D21">
-        <v>0.003806823019553152</v>
+        <v>0.184029746053568</v>
       </c>
       <c r="E21">
-        <v>0.8073030835001163</v>
+        <v>0.01477371311284381</v>
       </c>
       <c r="F21">
-        <v>4.608030027322144</v>
+        <v>10.88004856965603</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1.873438862644846</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.5922368129186992</v>
+        <v>0.1971742752314327</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.9055490416092908</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2040618999449606</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.00177778208473</v>
+        <v>4.149041146186107</v>
       </c>
       <c r="C22">
-        <v>3.144131390778455</v>
+        <v>0.5265018870545077</v>
       </c>
       <c r="D22">
-        <v>0.003269280957321596</v>
+        <v>0.1993080318852662</v>
       </c>
       <c r="E22">
-        <v>0.8821124653165526</v>
+        <v>0.01461385653411629</v>
       </c>
       <c r="F22">
-        <v>5.014064730718133</v>
+        <v>11.6096323097749</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>2.029109843226749</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6481564944561242</v>
+        <v>0.2064016839495721</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.982216918579681</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.218161958541657</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.703946939716388</v>
+        <v>3.982017869244885</v>
       </c>
       <c r="C23">
-        <v>3.005844609755115</v>
+        <v>0.502538640958079</v>
       </c>
       <c r="D23">
-        <v>0.003553006428459238</v>
+        <v>0.1910982904240939</v>
       </c>
       <c r="E23">
-        <v>0.8418178290457661</v>
+        <v>0.01469813571919598</v>
       </c>
       <c r="F23">
-        <v>4.795019187071375</v>
+        <v>11.21758089801773</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1.944969834337968</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.6180118959943854</v>
+        <v>0.2014412521962257</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.9409600969844121</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2105569377340686</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.614166093451615</v>
+        <v>3.377323002910998</v>
       </c>
       <c r="C24">
-        <v>2.503196616154071</v>
+        <v>0.4156957136712265</v>
       </c>
       <c r="D24">
-        <v>0.004690694359433811</v>
+        <v>0.161117686762239</v>
       </c>
       <c r="E24">
-        <v>0.6965101770168616</v>
+        <v>0.0150398954910318</v>
       </c>
       <c r="F24">
-        <v>4.012252540725939</v>
+        <v>9.786489338243427</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1.647497906754012</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.5097940769461218</v>
+        <v>0.183374029394848</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.7915452366520839</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.183379960760206</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.498687012997948</v>
+        <v>2.771784326727754</v>
       </c>
       <c r="C25">
-        <v>1.994060198530576</v>
+        <v>0.3283446996668999</v>
       </c>
       <c r="D25">
-        <v>0.006018242358784676</v>
+        <v>0.1305660646509068</v>
       </c>
       <c r="E25">
-        <v>0.5512040067738582</v>
+        <v>0.01545537660816398</v>
       </c>
       <c r="F25">
-        <v>3.24338344166344</v>
+        <v>8.331467772276454</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1.361046451569763</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4024062232288941</v>
+        <v>0.1650743361916867</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6417512778852341</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1568592676702281</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_0/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.35559032627674</v>
+        <v>4.099481059537766</v>
       </c>
       <c r="C2">
-        <v>0.2678118413456616</v>
+        <v>0.6758976470249536</v>
       </c>
       <c r="D2">
-        <v>0.1091216820138072</v>
+        <v>0.0247592007526336</v>
       </c>
       <c r="E2">
-        <v>0.01580068485797392</v>
+        <v>0.02312055368888188</v>
       </c>
       <c r="F2">
-        <v>7.314722087610562</v>
+        <v>3.129957104242123</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1523344764472796</v>
+        <v>0.05628174332873925</v>
       </c>
       <c r="K2">
-        <v>0.5385940214452418</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1391801508383708</v>
+        <v>0.1736947582851514</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.6478008419449566</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.800527836456851</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.087799154902314</v>
+        <v>3.622732101748113</v>
       </c>
       <c r="C3">
-        <v>0.2284881144936435</v>
+        <v>0.5822937478007759</v>
       </c>
       <c r="D3">
-        <v>0.09504651655076657</v>
+        <v>0.02126101768827482</v>
       </c>
       <c r="E3">
-        <v>0.01605900168555108</v>
+        <v>0.0219038713626345</v>
       </c>
       <c r="F3">
-        <v>6.650909864597679</v>
+        <v>2.940734420800041</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1440413906913065</v>
+        <v>0.0568762088681618</v>
       </c>
       <c r="K3">
-        <v>0.4720710150238006</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1281286938623794</v>
+        <v>0.1602592203783928</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.5767697096831981</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.839928576455321</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.929232378991173</v>
+        <v>3.33686231178541</v>
       </c>
       <c r="C4">
-        <v>0.2049991364357311</v>
+        <v>0.5258888303618221</v>
       </c>
       <c r="D4">
-        <v>0.08657472489628759</v>
+        <v>0.01920214715249813</v>
       </c>
       <c r="E4">
-        <v>0.01622953875299604</v>
+        <v>0.02116667002655959</v>
       </c>
       <c r="F4">
-        <v>6.25330820657959</v>
+        <v>2.830573333924775</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1390846401995987</v>
+        <v>0.05725138689663734</v>
       </c>
       <c r="K4">
-        <v>0.4326008851954199</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1217397680037351</v>
+        <v>0.1522719594254482</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.5342314022020318</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.866310326903942</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.865932792512638</v>
+        <v>3.221900475434154</v>
       </c>
       <c r="C5">
-        <v>0.1955681551650628</v>
+        <v>0.5031337406533964</v>
       </c>
       <c r="D5">
-        <v>0.08315790186546224</v>
+        <v>0.01838242561058578</v>
       </c>
       <c r="E5">
-        <v>0.01630202813647119</v>
+        <v>0.02086809822088842</v>
       </c>
       <c r="F5">
-        <v>6.093465030590096</v>
+        <v>2.787068148936939</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1370943728555218</v>
+        <v>0.05740686225515779</v>
       </c>
       <c r="K5">
-        <v>0.4168233715345266</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1192278322780496</v>
+        <v>0.1490776216020677</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.5171385426186319</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.877584328562435</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.855497278940419</v>
+        <v>3.202898420377323</v>
       </c>
       <c r="C6">
-        <v>0.1940100081130538</v>
+        <v>0.4993681357658772</v>
       </c>
       <c r="D6">
-        <v>0.08259248336507596</v>
+        <v>0.01824739120770502</v>
       </c>
       <c r="E6">
-        <v>0.01631424566273032</v>
+        <v>0.02081861465083534</v>
       </c>
       <c r="F6">
-        <v>6.067046043807238</v>
+        <v>2.77992434605622</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1367655615815195</v>
+        <v>0.05743283592103321</v>
       </c>
       <c r="K6">
-        <v>0.4142209984152316</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1188160372018245</v>
+        <v>0.1485507114425744</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.514314107111197</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.879487215987382</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.928373557521752</v>
+        <v>3.335305932562733</v>
       </c>
       <c r="C7">
-        <v>0.204871406027749</v>
+        <v>0.5255810625617983</v>
       </c>
       <c r="D7">
-        <v>0.08652850989602001</v>
+        <v>0.01919101789917477</v>
       </c>
       <c r="E7">
-        <v>0.01623050425254702</v>
+        <v>0.02116263670794094</v>
       </c>
       <c r="F7">
-        <v>6.251144077765787</v>
+        <v>2.829981155590289</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1390576841712203</v>
+        <v>0.05725347317792417</v>
       </c>
       <c r="K7">
-        <v>0.4323869101654552</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1217055304323225</v>
+        <v>0.1522286411571443</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.5339999385497123</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.866460287874389</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.261941380444284</v>
+        <v>3.93355419811553</v>
       </c>
       <c r="C8">
-        <v>0.2541016208173517</v>
+        <v>0.6433771478623385</v>
       </c>
       <c r="D8">
-        <v>0.1042285392201308</v>
+        <v>0.02353258393743829</v>
       </c>
       <c r="E8">
-        <v>0.01588727237780319</v>
+        <v>0.02269859676031327</v>
       </c>
       <c r="F8">
-        <v>7.083560628167191</v>
+        <v>3.063382439585425</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1494441918873477</v>
+        <v>0.05648462118208908</v>
       </c>
       <c r="K8">
-        <v>0.5153467119335744</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1352820880205243</v>
+        <v>0.1690043567185029</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.6230681960247821</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.813641520526446</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.97052405386637</v>
+        <v>5.170784290627012</v>
       </c>
       <c r="C9">
-        <v>0.3570828186005883</v>
+        <v>0.8847866348229729</v>
       </c>
       <c r="D9">
-        <v>0.1406650035607981</v>
+        <v>0.03291081486479186</v>
       </c>
       <c r="E9">
-        <v>0.01530925492609159</v>
+        <v>0.02582109126529364</v>
       </c>
       <c r="F9">
-        <v>8.811814178649513</v>
+        <v>3.575314734748616</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1711072596970737</v>
+        <v>0.05505626818123677</v>
       </c>
       <c r="K9">
-        <v>0.6909430473254758</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1654725806789301</v>
+        <v>0.2042543870284348</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.8076989604109386</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.728811803681808</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.537205457451932</v>
+        <v>6.134112404143821</v>
       </c>
       <c r="C10">
-        <v>0.4386792960472121</v>
+        <v>1.071567611621674</v>
       </c>
       <c r="D10">
-        <v>0.1690882819736714</v>
+        <v>0.04058105373403009</v>
       </c>
       <c r="E10">
-        <v>0.0149433928834255</v>
+        <v>0.02823459751179946</v>
       </c>
       <c r="F10">
-        <v>10.16678091574946</v>
+        <v>3.994669801897601</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1881688451599857</v>
+        <v>0.05405330485806381</v>
       </c>
       <c r="K10">
-        <v>0.8310615136401509</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1905064869016826</v>
+        <v>0.2320168170539887</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.9516955168187948</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.680085670157126</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.808496835633605</v>
+        <v>6.588149011248731</v>
       </c>
       <c r="C11">
-        <v>0.4776373046557865</v>
+        <v>1.159391557315473</v>
       </c>
       <c r="D11">
-        <v>0.182538913887214</v>
+        <v>0.04430751129488897</v>
       </c>
       <c r="E11">
-        <v>0.01479002458507983</v>
+        <v>0.02937248493225031</v>
       </c>
       <c r="F11">
-        <v>10.80886481992826</v>
+        <v>4.197497570268808</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1962748316099407</v>
+        <v>0.05360670666216105</v>
       </c>
       <c r="K11">
-        <v>0.8980941097408675</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2026985336499649</v>
+        <v>0.2451635397851391</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.019609683299066</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.6614429297138</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.9135210658132</v>
+        <v>6.762744275770956</v>
       </c>
       <c r="C12">
-        <v>0.4927099401286625</v>
+        <v>1.193138094081348</v>
       </c>
       <c r="D12">
-        <v>0.1877233313484936</v>
+        <v>0.0457594887802486</v>
       </c>
       <c r="E12">
-        <v>0.01473386304271607</v>
+        <v>0.02981052111829907</v>
       </c>
       <c r="F12">
-        <v>11.05641771951241</v>
+        <v>4.276297912198146</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1994034518391032</v>
+        <v>0.05343894983098219</v>
       </c>
       <c r="K12">
-        <v>0.9240395205282965</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2074495320444072</v>
+        <v>0.2502271559265949</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.04573130172281</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.654946487461132</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.890794047222414</v>
+        <v>6.725016914444041</v>
       </c>
       <c r="C13">
-        <v>0.4894485489419083</v>
+        <v>1.18584702024134</v>
       </c>
       <c r="D13">
-        <v>0.1866024437693596</v>
+        <v>0.04544484364333101</v>
       </c>
       <c r="E13">
-        <v>0.01474587252669801</v>
+        <v>0.02971583978823844</v>
       </c>
       <c r="F13">
-        <v>11.00289399821338</v>
+        <v>4.259233629111435</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1987268521868586</v>
+        <v>0.05347501919090369</v>
       </c>
       <c r="K13">
-        <v>0.9184251617850805</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2064200239549621</v>
+        <v>0.2491326355143997</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.040086569837925</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.656319574044304</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.81708908348935</v>
+        <v>6.602457308415524</v>
       </c>
       <c r="C14">
-        <v>0.4788705702430605</v>
+        <v>1.162157601128229</v>
       </c>
       <c r="D14">
-        <v>0.1829635143970165</v>
+        <v>0.04442610520343493</v>
       </c>
       <c r="E14">
-        <v>0.01478536549644627</v>
+        <v>0.02940837045964084</v>
       </c>
       <c r="F14">
-        <v>10.82913825543596</v>
+        <v>4.203938939751026</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1965309812872604</v>
+        <v>0.05359287809810942</v>
       </c>
       <c r="K14">
-        <v>0.9002168379558242</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2030865952356464</v>
+        <v>0.2455783506955811</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.021750268532614</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1.660896822787677</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.772252580823647</v>
+        <v>6.527745068323156</v>
       </c>
       <c r="C15">
-        <v>0.4724347571417979</v>
+        <v>1.147713436031836</v>
       </c>
       <c r="D15">
-        <v>0.1807469331868106</v>
+        <v>0.04380763666355847</v>
       </c>
       <c r="E15">
-        <v>0.0148098068460949</v>
+        <v>0.02922101217358541</v>
       </c>
       <c r="F15">
-        <v>10.72330532033681</v>
+        <v>4.170337352871229</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1951939474432862</v>
+        <v>0.05366524642882542</v>
       </c>
       <c r="K15">
-        <v>0.8891397344239351</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2010628468015199</v>
+        <v>0.2434126967166179</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.010573216056137</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1.663775681938191</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.519776274497417</v>
+        <v>6.104790132677692</v>
       </c>
       <c r="C16">
-        <v>0.4361748425270662</v>
+        <v>1.065892060108581</v>
       </c>
       <c r="D16">
-        <v>0.1682210445668204</v>
+        <v>0.04034284635085328</v>
       </c>
       <c r="E16">
-        <v>0.01495368168204347</v>
+        <v>0.02816115237346128</v>
       </c>
       <c r="F16">
-        <v>10.12539480680664</v>
+        <v>3.981678574463984</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1876468115645125</v>
+        <v>0.05408268292292151</v>
       </c>
       <c r="K16">
-        <v>0.8267542227087006</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1897273986223666</v>
+        <v>0.2311689517537445</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.9473103830727965</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.68137955673231</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.368580249627882</v>
+        <v>5.849630043621346</v>
       </c>
       <c r="C17">
-        <v>0.4144382371560482</v>
+        <v>1.016481383721271</v>
       </c>
       <c r="D17">
-        <v>0.1606808221258262</v>
+        <v>0.03828253628822864</v>
       </c>
       <c r="E17">
-        <v>0.01504531350111327</v>
+        <v>0.02752212387252939</v>
       </c>
       <c r="F17">
-        <v>9.76565142596462</v>
+        <v>3.869204918208254</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1831114359932045</v>
+        <v>0.05434121882761289</v>
       </c>
       <c r="K17">
-        <v>0.789384086966237</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1829916083635794</v>
+        <v>0.2237975835981416</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.9091562217101341</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.693118997593643</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.282863355502286</v>
+        <v>5.704330984433341</v>
       </c>
       <c r="C18">
-        <v>0.4021051998155372</v>
+        <v>0.9883251788743053</v>
       </c>
       <c r="D18">
-        <v>0.1563917970082827</v>
+        <v>0.03711936871587085</v>
       </c>
       <c r="E18">
-        <v>0.01509924459747225</v>
+        <v>0.02715823819205276</v>
       </c>
       <c r="F18">
-        <v>9.561106876671943</v>
+        <v>3.805630736170656</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1805345898276158</v>
+        <v>0.05449083218767115</v>
       </c>
       <c r="K18">
-        <v>0.7681935489272576</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1791917592544365</v>
+        <v>0.219605742064374</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.8874338542846019</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.700198982249148</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.254045545228848</v>
+        <v>5.655375440511932</v>
       </c>
       <c r="C19">
-        <v>0.3979569810804833</v>
+        <v>0.9788350135151518</v>
       </c>
       <c r="D19">
-        <v>0.1549473878093721</v>
+        <v>0.03672910776450067</v>
       </c>
       <c r="E19">
-        <v>0.01511771449588339</v>
+        <v>0.02703562358257816</v>
       </c>
       <c r="F19">
-        <v>9.492238815915158</v>
+        <v>3.784290259125527</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.179667307515281</v>
+        <v>0.0545416459464505</v>
       </c>
       <c r="K19">
-        <v>0.7610685207976644</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1779174594611135</v>
+        <v>0.218194390398736</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.8801156939409509</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.702650846710611</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.384543909821787</v>
+        <v>5.876638298600255</v>
       </c>
       <c r="C20">
-        <v>0.4167342439391746</v>
+        <v>1.021713428266708</v>
       </c>
       <c r="D20">
-        <v>0.1614784249418051</v>
+        <v>0.03849955110047176</v>
       </c>
       <c r="E20">
-        <v>0.01503543192260626</v>
+        <v>0.02758976067551977</v>
       </c>
       <c r="F20">
-        <v>9.803696601022807</v>
+        <v>3.88106049176497</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1835908811907458</v>
+        <v>0.05431360323306089</v>
       </c>
       <c r="K20">
-        <v>0.7933301704355387</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1837008204801123</v>
+        <v>0.2245772394954457</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.9131943374163143</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.691835007759096</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.838672719207523</v>
+        <v>6.638380435645729</v>
       </c>
       <c r="C21">
-        <v>0.481968399018939</v>
+        <v>1.169101785745511</v>
       </c>
       <c r="D21">
-        <v>0.184029746053568</v>
+        <v>0.04472416563301351</v>
       </c>
       <c r="E21">
-        <v>0.01477371311284381</v>
+        <v>0.02949847552558804</v>
       </c>
       <c r="F21">
-        <v>10.88004856965603</v>
+        <v>4.220123960187379</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1971742752314327</v>
+        <v>0.05355822337602145</v>
       </c>
       <c r="K21">
-        <v>0.9055490416092908</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2040618999449606</v>
+        <v>0.2466199229788089</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.02712462028861</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1.659536597036393</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.149041146186107</v>
+        <v>7.151958544573404</v>
       </c>
       <c r="C22">
-        <v>0.5265018870545077</v>
+        <v>1.268327404071613</v>
       </c>
       <c r="D22">
-        <v>0.1993080318852662</v>
+        <v>0.04903436685093254</v>
       </c>
       <c r="E22">
-        <v>0.01461385653411629</v>
+        <v>0.03078838951538287</v>
       </c>
       <c r="F22">
-        <v>11.6096323097749</v>
+        <v>4.453492546464645</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2064016839495721</v>
+        <v>0.05307245638540881</v>
       </c>
       <c r="K22">
-        <v>0.982216918579681</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.218161958541657</v>
+        <v>0.2615291175300598</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.103972477729158</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.641742910387833</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.982017869244885</v>
+        <v>6.876269137348572</v>
       </c>
       <c r="C23">
-        <v>0.502538640958079</v>
+        <v>1.215074347917664</v>
       </c>
       <c r="D23">
-        <v>0.1910982904240939</v>
+        <v>0.04670926116839524</v>
       </c>
       <c r="E23">
-        <v>0.01469813571919598</v>
+        <v>0.03009552924925174</v>
       </c>
       <c r="F23">
-        <v>11.21758089801773</v>
+        <v>4.327766267110405</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2014412521962257</v>
+        <v>0.0533310034966985</v>
       </c>
       <c r="K23">
-        <v>0.9409600969844121</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2105569377340686</v>
+        <v>0.2535217763843747</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.062717575381058</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1.650915415680117</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.377323002910998</v>
+        <v>5.864423547224078</v>
       </c>
       <c r="C24">
-        <v>0.4156957136712265</v>
+        <v>1.019347245999086</v>
       </c>
       <c r="D24">
-        <v>0.161117686762239</v>
+        <v>0.03840137275322064</v>
       </c>
       <c r="E24">
-        <v>0.0150398954910318</v>
+        <v>0.02755917127634167</v>
       </c>
       <c r="F24">
-        <v>9.786489338243427</v>
+        <v>3.875697215892615</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.183374029394848</v>
+        <v>0.05432608519605608</v>
       </c>
       <c r="K24">
-        <v>0.7915452366520839</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.183379960760206</v>
+        <v>0.2242246144073334</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.9113680461948377</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.692414473293681</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.771784326727754</v>
+        <v>4.827757088455257</v>
       </c>
       <c r="C25">
-        <v>0.3283446996668999</v>
+        <v>0.8180706383506902</v>
       </c>
       <c r="D25">
-        <v>0.1305660646509068</v>
+        <v>0.03025717133564143</v>
       </c>
       <c r="E25">
-        <v>0.01545537660816398</v>
+        <v>0.0249596100051761</v>
       </c>
       <c r="F25">
-        <v>8.331467772276454</v>
+        <v>3.430042188886944</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1650743361916867</v>
+        <v>0.05543437899888248</v>
       </c>
       <c r="K25">
-        <v>0.6417512778852341</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1568592676702281</v>
+        <v>0.1944251655769378</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.7564664464512774</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.749546169694455</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_0/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.099481059537766</v>
+        <v>3.975606546170866</v>
       </c>
       <c r="C2">
-        <v>0.6758976470249536</v>
+        <v>0.2864795845894434</v>
       </c>
       <c r="D2">
-        <v>0.0247592007526336</v>
+        <v>0.008536791026919843</v>
       </c>
       <c r="E2">
-        <v>0.02312055368888188</v>
+        <v>0.04218811757395358</v>
       </c>
       <c r="F2">
-        <v>3.129957104242123</v>
+        <v>4.778860952708982</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05628174332873925</v>
+        <v>0.1229205903000947</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1736947582851514</v>
+        <v>0.3265923476159784</v>
       </c>
       <c r="M2">
-        <v>0.6478008419449566</v>
+        <v>0.7321708664111171</v>
       </c>
       <c r="N2">
-        <v>1.800527836456851</v>
+        <v>3.259197752174316</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.622732101748113</v>
+        <v>3.881884048324764</v>
       </c>
       <c r="C3">
-        <v>0.5822937478007759</v>
+        <v>0.2634821436224399</v>
       </c>
       <c r="D3">
-        <v>0.02126101768827482</v>
+        <v>0.007445546137937242</v>
       </c>
       <c r="E3">
-        <v>0.0219038713626345</v>
+        <v>0.04177184720871985</v>
       </c>
       <c r="F3">
-        <v>2.940734420800041</v>
+        <v>4.75714298633109</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0568762088681618</v>
+        <v>0.1231051025490411</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1602592203783928</v>
+        <v>0.3253257406725965</v>
       </c>
       <c r="M3">
-        <v>0.5767697096831981</v>
+        <v>0.7192830793392631</v>
       </c>
       <c r="N3">
-        <v>1.839928576455321</v>
+        <v>3.27552583936469</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.33686231178541</v>
+        <v>3.826681723177614</v>
       </c>
       <c r="C4">
-        <v>0.5258888303618221</v>
+        <v>0.2495364413016432</v>
       </c>
       <c r="D4">
-        <v>0.01920214715249813</v>
+        <v>0.006775747241810848</v>
       </c>
       <c r="E4">
-        <v>0.02116667002655959</v>
+        <v>0.04151075920715286</v>
       </c>
       <c r="F4">
-        <v>2.830573333924775</v>
+        <v>4.746015564320786</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05725138689663734</v>
+        <v>0.1232238719411609</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1522719594254482</v>
+        <v>0.3246897639083883</v>
       </c>
       <c r="M4">
-        <v>0.5342314022020318</v>
+        <v>0.7117789697486359</v>
       </c>
       <c r="N4">
-        <v>1.866310326903942</v>
+        <v>3.286377293793137</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.221900475434154</v>
+        <v>3.804774224173684</v>
       </c>
       <c r="C5">
-        <v>0.5031337406533964</v>
+        <v>0.2438968920009472</v>
       </c>
       <c r="D5">
-        <v>0.01838242561058578</v>
+        <v>0.006502784756982294</v>
       </c>
       <c r="E5">
-        <v>0.02086809822088842</v>
+        <v>0.0414029662815425</v>
       </c>
       <c r="F5">
-        <v>2.787068148936939</v>
+        <v>4.742034781527167</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05740686225515779</v>
+        <v>0.1232736517025748</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1490776216020677</v>
+        <v>0.3244662581945406</v>
       </c>
       <c r="M5">
-        <v>0.5171385426186319</v>
+        <v>0.7088236774714929</v>
       </c>
       <c r="N5">
-        <v>1.877584328562435</v>
+        <v>3.29100657917644</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.202898420377323</v>
+        <v>3.801171967153721</v>
       </c>
       <c r="C6">
-        <v>0.4993681357658772</v>
+        <v>0.242963057561866</v>
       </c>
       <c r="D6">
-        <v>0.01824739120770502</v>
+        <v>0.006457456608174539</v>
       </c>
       <c r="E6">
-        <v>0.02081861465083534</v>
+        <v>0.04138498249888745</v>
       </c>
       <c r="F6">
-        <v>2.77992434605622</v>
+        <v>4.741407180372377</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05743283592103321</v>
+        <v>0.1232820010404563</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1485507114425744</v>
+        <v>0.3244312997037611</v>
       </c>
       <c r="M6">
-        <v>0.514314107111197</v>
+        <v>0.7083391512283441</v>
       </c>
       <c r="N6">
-        <v>1.879487215987382</v>
+        <v>3.291787771275409</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.335305932562733</v>
+        <v>3.826383892514514</v>
       </c>
       <c r="C7">
-        <v>0.5255810625617983</v>
+        <v>0.2494602091695697</v>
       </c>
       <c r="D7">
-        <v>0.01919101789917477</v>
+        <v>0.006772066124682397</v>
       </c>
       <c r="E7">
-        <v>0.02116263670794094</v>
+        <v>0.04150931115208678</v>
       </c>
       <c r="F7">
-        <v>2.829981155590289</v>
+        <v>4.745959637885818</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05725347317792417</v>
+        <v>0.1232245376957071</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1522286411571443</v>
+        <v>0.3246866052155113</v>
       </c>
       <c r="M7">
-        <v>0.5339999385497123</v>
+        <v>0.7117386980587384</v>
       </c>
       <c r="N7">
-        <v>1.866460287874389</v>
+        <v>3.286438887534331</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.93355419811553</v>
+        <v>3.942803682930844</v>
       </c>
       <c r="C8">
-        <v>0.6433771478623385</v>
+        <v>0.278513459491819</v>
       </c>
       <c r="D8">
-        <v>0.02353258393743829</v>
+        <v>0.008160438471179532</v>
       </c>
       <c r="E8">
-        <v>0.02269859676031327</v>
+        <v>0.04204571897044218</v>
       </c>
       <c r="F8">
-        <v>3.063382439585425</v>
+        <v>4.770913588035413</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05648462118208908</v>
+        <v>0.1229830748070286</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1690043567185029</v>
+        <v>0.3261262180837434</v>
       </c>
       <c r="M8">
-        <v>0.6230681960247821</v>
+        <v>0.7276421536213817</v>
       </c>
       <c r="N8">
-        <v>1.813641520526446</v>
+        <v>3.264655974072667</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.170784290627012</v>
+        <v>4.189782338302166</v>
       </c>
       <c r="C9">
-        <v>0.8847866348229729</v>
+        <v>0.3369008100935673</v>
       </c>
       <c r="D9">
-        <v>0.03291081486479186</v>
+        <v>0.0108882102009531</v>
       </c>
       <c r="E9">
-        <v>0.02582109126529364</v>
+        <v>0.0430547270735735</v>
       </c>
       <c r="F9">
-        <v>3.575314734748616</v>
+        <v>4.837433824306856</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05505626818123677</v>
+        <v>0.1225529035411514</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2042543870284348</v>
+        <v>0.3300734479392986</v>
       </c>
       <c r="M9">
-        <v>0.8076989604109386</v>
+        <v>0.7620846647675421</v>
       </c>
       <c r="N9">
-        <v>1.728811803681808</v>
+        <v>3.228514076392102</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.134112404143821</v>
+        <v>4.382768886533199</v>
       </c>
       <c r="C10">
-        <v>1.071567611621674</v>
+        <v>0.3807021077585659</v>
       </c>
       <c r="D10">
-        <v>0.04058105373403009</v>
+        <v>0.01290027029359919</v>
       </c>
       <c r="E10">
-        <v>0.02823459751179946</v>
+        <v>0.04377095092725902</v>
       </c>
       <c r="F10">
-        <v>3.994669801897601</v>
+        <v>4.897136646087603</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05405330485806381</v>
+        <v>0.1222630884284066</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2320168170539887</v>
+        <v>0.3336591854330351</v>
       </c>
       <c r="M10">
-        <v>0.9516955168187948</v>
+        <v>0.7893929252097962</v>
       </c>
       <c r="N10">
-        <v>1.680085670157126</v>
+        <v>3.205997497605551</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.588149011248731</v>
+        <v>4.473100869906773</v>
       </c>
       <c r="C11">
-        <v>1.159391557315473</v>
+        <v>0.4008342669047238</v>
       </c>
       <c r="D11">
-        <v>0.04430751129488897</v>
+        <v>0.01381839404301388</v>
       </c>
       <c r="E11">
-        <v>0.02937248493225031</v>
+        <v>0.04409156101893696</v>
       </c>
       <c r="F11">
-        <v>4.197497570268808</v>
+        <v>4.926673709018758</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05360670666216105</v>
+        <v>0.1221369000660992</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2451635397851391</v>
+        <v>0.335439502659213</v>
       </c>
       <c r="M11">
-        <v>1.019609683299066</v>
+        <v>0.8022555433902738</v>
       </c>
       <c r="N11">
-        <v>1.6614429297138</v>
+        <v>3.196637113978909</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.762744275770956</v>
+        <v>4.507674978684861</v>
       </c>
       <c r="C12">
-        <v>1.193138094081348</v>
+        <v>0.4084882060025166</v>
       </c>
       <c r="D12">
-        <v>0.0457594887802486</v>
+        <v>0.01416655371483699</v>
       </c>
       <c r="E12">
-        <v>0.02981052111829907</v>
+        <v>0.04421223720679723</v>
       </c>
       <c r="F12">
-        <v>4.276297912198146</v>
+        <v>4.93820244210707</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05343894983098219</v>
+        <v>0.1220899254596408</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2502271559265949</v>
+        <v>0.3361351122405694</v>
       </c>
       <c r="M12">
-        <v>1.04573130172281</v>
+        <v>0.8071898374477016</v>
       </c>
       <c r="N12">
-        <v>1.654946487461132</v>
+        <v>3.193220043669754</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.725016914444041</v>
+        <v>4.500212457105533</v>
       </c>
       <c r="C13">
-        <v>1.18584702024134</v>
+        <v>0.4068384347849019</v>
       </c>
       <c r="D13">
-        <v>0.04544484364333101</v>
+        <v>0.01409154840222726</v>
       </c>
       <c r="E13">
-        <v>0.02971583978823844</v>
+        <v>0.04418627971910016</v>
       </c>
       <c r="F13">
-        <v>4.259233629111435</v>
+        <v>4.935704209360807</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05347501919090369</v>
+        <v>0.1221000062835795</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2491326355143997</v>
+        <v>0.3359843466867858</v>
       </c>
       <c r="M13">
-        <v>1.040086569837925</v>
+        <v>0.8061243209282125</v>
       </c>
       <c r="N13">
-        <v>1.656319574044304</v>
+        <v>3.19395029048313</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.602457308415524</v>
+        <v>4.475937929409099</v>
       </c>
       <c r="C14">
-        <v>1.162157601128229</v>
+        <v>0.4014633497986893</v>
       </c>
       <c r="D14">
-        <v>0.04442610520343493</v>
+        <v>0.01384702714642572</v>
       </c>
       <c r="E14">
-        <v>0.02940837045964084</v>
+        <v>0.04410150369536936</v>
       </c>
       <c r="F14">
-        <v>4.203938939751026</v>
+        <v>4.927615286687626</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05359287809810942</v>
+        <v>0.1221330192121779</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2455783506955811</v>
+        <v>0.3354963011681917</v>
       </c>
       <c r="M14">
-        <v>1.021750268532614</v>
+        <v>0.8026602167245613</v>
       </c>
       <c r="N14">
-        <v>1.660896822787677</v>
+        <v>3.196353430719441</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.527745068323156</v>
+        <v>4.461116976903554</v>
       </c>
       <c r="C15">
-        <v>1.147713436031836</v>
+        <v>0.3981749225540625</v>
       </c>
       <c r="D15">
-        <v>0.04380763666355847</v>
+        <v>0.01369731650147799</v>
       </c>
       <c r="E15">
-        <v>0.02922101217358541</v>
+        <v>0.04404948110785423</v>
       </c>
       <c r="F15">
-        <v>4.170337352871229</v>
+        <v>4.922705398717284</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05366524642882542</v>
+        <v>0.1221533460279627</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2434126967166179</v>
+        <v>0.3352001514740692</v>
       </c>
       <c r="M15">
-        <v>1.010573216056137</v>
+        <v>0.8005466295438097</v>
       </c>
       <c r="N15">
-        <v>1.663775681938191</v>
+        <v>3.197842046195817</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.104790132677692</v>
+        <v>4.376916779492888</v>
       </c>
       <c r="C16">
-        <v>1.065892060108581</v>
+        <v>0.3793906347693223</v>
       </c>
       <c r="D16">
-        <v>0.04034284635085328</v>
+        <v>0.01284033242303906</v>
       </c>
       <c r="E16">
-        <v>0.02816115237346128</v>
+        <v>0.04374989498914061</v>
       </c>
       <c r="F16">
-        <v>3.981678574463984</v>
+        <v>4.895254328031285</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05408268292292151</v>
+        <v>0.1222714486312926</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2311689517537445</v>
+        <v>0.3335458382541816</v>
       </c>
       <c r="M16">
-        <v>0.9473103830727965</v>
+        <v>0.7885611957210088</v>
       </c>
       <c r="N16">
-        <v>1.68137955673231</v>
+        <v>3.20662703017986</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.849630043621346</v>
+        <v>4.325914935093806</v>
       </c>
       <c r="C17">
-        <v>1.016481383721271</v>
+        <v>0.3679204543806236</v>
       </c>
       <c r="D17">
-        <v>0.03828253628822864</v>
+        <v>0.0123153809605796</v>
       </c>
       <c r="E17">
-        <v>0.02752212387252939</v>
+        <v>0.04356478742373859</v>
       </c>
       <c r="F17">
-        <v>3.869204918208254</v>
+        <v>4.879024262666405</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05434121882761289</v>
+        <v>0.1223453462207478</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2237975835981416</v>
+        <v>0.3325691665526449</v>
       </c>
       <c r="M17">
-        <v>0.9091562217101341</v>
+        <v>0.7813213671413664</v>
       </c>
       <c r="N17">
-        <v>1.693118997593643</v>
+        <v>3.212242790549539</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.704330984433341</v>
+        <v>4.296819118230985</v>
       </c>
       <c r="C18">
-        <v>0.9883251788743053</v>
+        <v>0.3613425317853967</v>
       </c>
       <c r="D18">
-        <v>0.03711936871587085</v>
+        <v>0.01201370409262381</v>
       </c>
       <c r="E18">
-        <v>0.02715823819205276</v>
+        <v>0.04345782765806838</v>
       </c>
       <c r="F18">
-        <v>3.805630736170656</v>
+        <v>4.869912875786099</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05449083218767115</v>
+        <v>0.1223883820968061</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.219605742064374</v>
+        <v>0.3320214494425784</v>
       </c>
       <c r="M18">
-        <v>0.8874338542846019</v>
+        <v>0.7771986051275377</v>
       </c>
       <c r="N18">
-        <v>1.700198982249148</v>
+        <v>3.215555858055154</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.655375440511932</v>
+        <v>4.287008782698194</v>
       </c>
       <c r="C19">
-        <v>0.9788350135151518</v>
+        <v>0.3591186778293149</v>
       </c>
       <c r="D19">
-        <v>0.03672910776450067</v>
+        <v>0.01191160396495405</v>
       </c>
       <c r="E19">
-        <v>0.02703562358257816</v>
+        <v>0.04342152812888589</v>
       </c>
       <c r="F19">
-        <v>3.784290259125527</v>
+        <v>4.866866287940468</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0545416459464505</v>
+        <v>0.1224030447355902</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.218194390398736</v>
+        <v>0.3318384131767544</v>
       </c>
       <c r="M19">
-        <v>0.8801156939409509</v>
+        <v>0.7758098115236081</v>
       </c>
       <c r="N19">
-        <v>1.702650846710611</v>
+        <v>3.216691848299092</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.876638298600255</v>
+        <v>4.331319409556272</v>
       </c>
       <c r="C20">
-        <v>1.021713428266708</v>
+        <v>0.3691394602705032</v>
       </c>
       <c r="D20">
-        <v>0.03849955110047176</v>
+        <v>0.01237123531851836</v>
       </c>
       <c r="E20">
-        <v>0.02758976067551977</v>
+        <v>0.04358454311671345</v>
       </c>
       <c r="F20">
-        <v>3.88106049176497</v>
+        <v>4.880728814435287</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05431360323306089</v>
+        <v>0.1223374246593067</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2245772394954457</v>
+        <v>0.3326716820224362</v>
       </c>
       <c r="M20">
-        <v>0.9131943374163143</v>
+        <v>0.7820877732635552</v>
       </c>
       <c r="N20">
-        <v>1.691835007759096</v>
+        <v>3.211636385614227</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.638380435645729</v>
+        <v>4.483057961540794</v>
       </c>
       <c r="C21">
-        <v>1.169101785745511</v>
+        <v>0.4030413146417118</v>
       </c>
       <c r="D21">
-        <v>0.04472416563301351</v>
+        <v>0.01391883513507963</v>
       </c>
       <c r="E21">
-        <v>0.02949847552558804</v>
+        <v>0.04412642420052393</v>
       </c>
       <c r="F21">
-        <v>4.220123960187379</v>
+        <v>4.929981857672232</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05355822337602145</v>
+        <v>0.1221233005444011</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2466199229788089</v>
+        <v>0.3356390700653122</v>
       </c>
       <c r="M21">
-        <v>1.02712462028861</v>
+        <v>0.8036759828174596</v>
       </c>
       <c r="N21">
-        <v>1.659536597036393</v>
+        <v>3.195644104938907</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.151958544573404</v>
+        <v>4.584369978590303</v>
       </c>
       <c r="C22">
-        <v>1.268327404071613</v>
+        <v>0.425375193608204</v>
       </c>
       <c r="D22">
-        <v>0.04903436685093254</v>
+        <v>0.01493315219597235</v>
       </c>
       <c r="E22">
-        <v>0.03078838951538287</v>
+        <v>0.04447631649002126</v>
       </c>
       <c r="F22">
-        <v>4.453492546464645</v>
+        <v>4.964175683777171</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05307245638540881</v>
+        <v>0.1219880794196513</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2615291175300598</v>
+        <v>0.3377034097486558</v>
       </c>
       <c r="M22">
-        <v>1.103972477729158</v>
+        <v>0.8181553663515473</v>
       </c>
       <c r="N22">
-        <v>1.641742910387833</v>
+        <v>3.18593570000948</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.876269137348572</v>
+        <v>4.530101204993741</v>
       </c>
       <c r="C23">
-        <v>1.215074347917664</v>
+        <v>0.413438780226727</v>
       </c>
       <c r="D23">
-        <v>0.04670926116839524</v>
+        <v>0.01439150286925184</v>
       </c>
       <c r="E23">
-        <v>0.03009552924925174</v>
+        <v>0.04428995656826817</v>
       </c>
       <c r="F23">
-        <v>4.327766267110405</v>
+        <v>4.94574183283612</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0533310034966985</v>
+        <v>0.1220598182156607</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2535217763843747</v>
+        <v>0.3365901982488708</v>
       </c>
       <c r="M23">
-        <v>1.062717575381058</v>
+        <v>0.8103934897450955</v>
       </c>
       <c r="N23">
-        <v>1.650915415680117</v>
+        <v>3.191049029965455</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.864423547224078</v>
+        <v>4.328875343405912</v>
       </c>
       <c r="C24">
-        <v>1.019347245999086</v>
+        <v>0.3685882965559699</v>
       </c>
       <c r="D24">
-        <v>0.03840137275322064</v>
+        <v>0.01234598318099955</v>
       </c>
       <c r="E24">
-        <v>0.02755917127634167</v>
+        <v>0.04357561324790993</v>
       </c>
       <c r="F24">
-        <v>3.875697215892615</v>
+        <v>4.879957503037161</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05432608519605608</v>
+        <v>0.1223410042804325</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2242246144073334</v>
+        <v>0.3326252918427883</v>
       </c>
       <c r="M24">
-        <v>0.9113680461948377</v>
+        <v>0.7817411580025464</v>
       </c>
       <c r="N24">
-        <v>1.692414473293681</v>
+        <v>3.211910278156822</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.827757088455257</v>
+        <v>4.120953628334291</v>
       </c>
       <c r="C25">
-        <v>0.8180706383506902</v>
+        <v>0.3209497907135983</v>
       </c>
       <c r="D25">
-        <v>0.03025717133564143</v>
+        <v>0.01014922713522282</v>
       </c>
       <c r="E25">
-        <v>0.0249596100051761</v>
+        <v>0.04278624686196775</v>
       </c>
       <c r="F25">
-        <v>3.430042188886944</v>
+        <v>4.81754446409326</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05543437899888248</v>
+        <v>0.1226646562850209</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1944251655769378</v>
+        <v>0.3288852361706773</v>
       </c>
       <c r="M25">
-        <v>0.7564664464512774</v>
+        <v>0.7524166107989032</v>
       </c>
       <c r="N25">
-        <v>1.749546169694455</v>
+        <v>3.237584629830593</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_0/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.975606546170866</v>
+        <v>3.914359168898272</v>
       </c>
       <c r="C2">
-        <v>0.2864795845894434</v>
+        <v>1.126166936818521</v>
       </c>
       <c r="D2">
-        <v>0.008536791026919843</v>
+        <v>0.3258754530982628</v>
       </c>
       <c r="E2">
-        <v>0.04218811757395358</v>
+        <v>1.508533817718785</v>
       </c>
       <c r="F2">
-        <v>4.778860952708982</v>
+        <v>6.6445235028269</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1229205903000947</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3265923476159784</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7321708664111171</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>3.259197752174316</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.881884048324764</v>
+        <v>3.330642336703704</v>
       </c>
       <c r="C3">
-        <v>0.2634821436224399</v>
+        <v>0.9572611794098691</v>
       </c>
       <c r="D3">
-        <v>0.007445546137937242</v>
+        <v>0.283131659581457</v>
       </c>
       <c r="E3">
-        <v>0.04177184720871985</v>
+        <v>1.274478987757249</v>
       </c>
       <c r="F3">
-        <v>4.75714298633109</v>
+        <v>5.74008112786484</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1231051025490411</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3253257406725965</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7192830793392631</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>3.27552583936469</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.826681723177614</v>
+        <v>2.984560682169729</v>
       </c>
       <c r="C4">
-        <v>0.2495364413016432</v>
+        <v>0.857325550359775</v>
       </c>
       <c r="D4">
-        <v>0.006775747241810848</v>
+        <v>0.2579759541252713</v>
       </c>
       <c r="E4">
-        <v>0.04151075920715286</v>
+        <v>1.137158925354299</v>
       </c>
       <c r="F4">
-        <v>4.746015564320786</v>
+        <v>5.205753057272489</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1232238719411609</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3246897639083883</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7117789697486359</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>3.286377293793137</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.804774224173684</v>
+        <v>2.846075309607784</v>
       </c>
       <c r="C5">
-        <v>0.2438968920009472</v>
+        <v>0.8173694701355601</v>
       </c>
       <c r="D5">
-        <v>0.006502784756982294</v>
+        <v>0.2479501194265339</v>
       </c>
       <c r="E5">
-        <v>0.0414029662815425</v>
+        <v>1.082501668388758</v>
       </c>
       <c r="F5">
-        <v>4.742034781527167</v>
+        <v>4.992389693943181</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1232736517025748</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3244662581945406</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7088236774714929</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>3.29100657917644</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.801171967153721</v>
+        <v>2.823219155933657</v>
       </c>
       <c r="C6">
-        <v>0.242963057561866</v>
+        <v>0.8107764951693071</v>
       </c>
       <c r="D6">
-        <v>0.006457456608174539</v>
+        <v>0.2462976683818283</v>
       </c>
       <c r="E6">
-        <v>0.04138498249888745</v>
+        <v>1.073496571775649</v>
       </c>
       <c r="F6">
-        <v>4.741407180372377</v>
+        <v>4.957201619896153</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1232820010404563</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3244312997037611</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7083391512283441</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>3.291787771275409</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.826383892514514</v>
+        <v>2.982683379503442</v>
       </c>
       <c r="C7">
-        <v>0.2494602091695697</v>
+        <v>0.8567837937612239</v>
       </c>
       <c r="D7">
-        <v>0.006772066124682397</v>
+        <v>0.2578398885760578</v>
       </c>
       <c r="E7">
-        <v>0.04150931115208678</v>
+        <v>1.136416892277992</v>
       </c>
       <c r="F7">
-        <v>4.745959637885818</v>
+        <v>5.202858922663552</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1232245376957071</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3246866052155113</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7117386980587384</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>3.286438887534331</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.942803682930844</v>
+        <v>3.710173144605051</v>
       </c>
       <c r="C8">
-        <v>0.278513459491819</v>
+        <v>1.067026413432529</v>
       </c>
       <c r="D8">
-        <v>0.008160438471179532</v>
+        <v>0.3108795245654363</v>
       </c>
       <c r="E8">
-        <v>0.04204571897044218</v>
+        <v>1.426303381906834</v>
       </c>
       <c r="F8">
-        <v>4.770913588035413</v>
+        <v>6.327722628874341</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1229830748070286</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3261262180837434</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7276421536213817</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>3.264655974072667</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.189782338302166</v>
+        <v>5.265612434942341</v>
       </c>
       <c r="C9">
-        <v>0.3369008100935673</v>
+        <v>1.519464088145469</v>
       </c>
       <c r="D9">
-        <v>0.0108882102009531</v>
+        <v>0.4262493254929893</v>
       </c>
       <c r="E9">
-        <v>0.0430547270735735</v>
+        <v>2.063029095768698</v>
       </c>
       <c r="F9">
-        <v>4.837433824306856</v>
+        <v>8.750478421224159</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1225529035411514</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3300734479392986</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7620846647675421</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>3.228514076392102</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.382768886533199</v>
+        <v>6.544014937011468</v>
       </c>
       <c r="C10">
-        <v>0.3807021077585659</v>
+        <v>1.895328471866549</v>
       </c>
       <c r="D10">
-        <v>0.01290027029359919</v>
+        <v>0.5229169158366176</v>
       </c>
       <c r="E10">
-        <v>0.04377095092725902</v>
+        <v>2.605783700959023</v>
       </c>
       <c r="F10">
-        <v>4.897136646087603</v>
+        <v>10.75424082456163</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1222630884284066</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3336591854330351</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.7893929252097962</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>3.205997497605551</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.473100869906773</v>
+        <v>7.173871963502734</v>
       </c>
       <c r="C11">
-        <v>0.4008342669047238</v>
+        <v>2.082108635262841</v>
       </c>
       <c r="D11">
-        <v>0.01381839404301388</v>
+        <v>0.5711190794094421</v>
       </c>
       <c r="E11">
-        <v>0.04409156101893696</v>
+        <v>2.880487308587078</v>
       </c>
       <c r="F11">
-        <v>4.926673709018758</v>
+        <v>11.74426785788376</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1221369000660992</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.335439502659213</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.8022555433902738</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>3.196637113978909</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.507674978684861</v>
+        <v>7.421644431583047</v>
       </c>
       <c r="C12">
-        <v>0.4084882060025166</v>
+        <v>2.155900022332048</v>
       </c>
       <c r="D12">
-        <v>0.01416655371483699</v>
+        <v>0.5901816606651096</v>
       </c>
       <c r="E12">
-        <v>0.04421223720679723</v>
+        <v>2.989983930174873</v>
       </c>
       <c r="F12">
-        <v>4.93820244210707</v>
+        <v>12.13409822220422</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1220899254596408</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3361351122405694</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.8071898374477016</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>3.193220043669754</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.500212457105533</v>
+        <v>7.367823890402406</v>
       </c>
       <c r="C13">
-        <v>0.4068384347849019</v>
+        <v>2.139855567027553</v>
       </c>
       <c r="D13">
-        <v>0.01409154840222726</v>
+        <v>0.5860361389526929</v>
       </c>
       <c r="E13">
-        <v>0.04418627971910016</v>
+        <v>2.966128155601922</v>
       </c>
       <c r="F13">
-        <v>4.935704209360807</v>
+        <v>12.0494044759829</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1221000062835795</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3359843466867858</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.8061243209282125</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>3.19395029048313</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.475937929409099</v>
+        <v>7.194054377950806</v>
       </c>
       <c r="C14">
-        <v>0.4014633497986893</v>
+        <v>2.088112497045074</v>
       </c>
       <c r="D14">
-        <v>0.01384702714642572</v>
+        <v>0.572669716718309</v>
       </c>
       <c r="E14">
-        <v>0.04410150369536936</v>
+        <v>2.889375306820199</v>
       </c>
       <c r="F14">
-        <v>4.927615286687626</v>
+        <v>11.7760145325538</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1221330192121779</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3354963011681917</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.8026602167245613</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>3.196353430719441</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.461116976903554</v>
+        <v>7.088904821411916</v>
       </c>
       <c r="C15">
-        <v>0.3981749225540625</v>
+        <v>2.05684576932731</v>
       </c>
       <c r="D15">
-        <v>0.01369731650147799</v>
+        <v>0.5645950867809404</v>
       </c>
       <c r="E15">
-        <v>0.04404948110785423</v>
+        <v>2.843128857796899</v>
       </c>
       <c r="F15">
-        <v>4.922705398717284</v>
+        <v>11.61063028757542</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1221533460279627</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3352001514740692</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.8005466295438097</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>3.197842046195817</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.376916779492888</v>
+        <v>6.50400352544932</v>
       </c>
       <c r="C16">
-        <v>0.3793906347693223</v>
+        <v>1.883500865547205</v>
       </c>
       <c r="D16">
-        <v>0.01284033242303906</v>
+        <v>0.5198674745137737</v>
       </c>
       <c r="E16">
-        <v>0.04374989498914061</v>
+        <v>2.588503621290783</v>
       </c>
       <c r="F16">
-        <v>4.895254328031285</v>
+        <v>10.69140251426285</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1222714486312926</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3335458382541816</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.7885611957210088</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>3.20662703017986</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.325914935093806</v>
+        <v>6.15895970797834</v>
       </c>
       <c r="C17">
-        <v>0.3679204543806236</v>
+        <v>1.781682087095987</v>
       </c>
       <c r="D17">
-        <v>0.0123153809605796</v>
+        <v>0.4936334766608468</v>
       </c>
       <c r="E17">
-        <v>0.04356478742373859</v>
+        <v>2.440298193353556</v>
       </c>
       <c r="F17">
-        <v>4.879024262666405</v>
+        <v>10.14980673568229</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1223453462207478</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3325691665526449</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.7813213671413664</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>3.212242790549539</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.296819118230985</v>
+        <v>5.964870503361851</v>
       </c>
       <c r="C18">
-        <v>0.3613425317853967</v>
+        <v>1.724545184918725</v>
       </c>
       <c r="D18">
-        <v>0.01201370409262381</v>
+        <v>0.4789269749353764</v>
       </c>
       <c r="E18">
-        <v>0.04345782765806838</v>
+        <v>2.357557198201334</v>
       </c>
       <c r="F18">
-        <v>4.869912875786099</v>
+        <v>9.845408758620863</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1223883820968061</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3320214494425784</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.7771986051275377</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>3.215555858055154</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.287008782698194</v>
+        <v>5.899848177217393</v>
       </c>
       <c r="C19">
-        <v>0.3591186778293149</v>
+        <v>1.705425019204597</v>
       </c>
       <c r="D19">
-        <v>0.01191160396495405</v>
+        <v>0.4740082858555752</v>
       </c>
       <c r="E19">
-        <v>0.04342152812888589</v>
+        <v>2.32993637957702</v>
       </c>
       <c r="F19">
-        <v>4.866866287940468</v>
+        <v>9.743475328211673</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1224030447355902</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3318384131767544</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.7758098115236081</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>3.216691848299092</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.331319409556272</v>
+        <v>6.195223673441205</v>
       </c>
       <c r="C20">
-        <v>0.3691394602705032</v>
+        <v>1.792368411244809</v>
       </c>
       <c r="D20">
-        <v>0.01237123531851836</v>
+        <v>0.496385298387338</v>
       </c>
       <c r="E20">
-        <v>0.04358454311671345</v>
+        <v>2.455807017030594</v>
       </c>
       <c r="F20">
-        <v>4.880728814435287</v>
+        <v>10.20670192538608</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1223374246593067</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3326716820224362</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.7820877732635552</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>3.211636385614227</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.483057961540794</v>
+        <v>7.244820566280453</v>
       </c>
       <c r="C21">
-        <v>0.4030413146417118</v>
+        <v>2.103219748299352</v>
       </c>
       <c r="D21">
-        <v>0.01391883513507963</v>
+        <v>0.5765718000773177</v>
       </c>
       <c r="E21">
-        <v>0.04412642420052393</v>
+        <v>2.911756093989695</v>
       </c>
       <c r="F21">
-        <v>4.929981857672232</v>
+        <v>11.85587483858484</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1221233005444011</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3356390700653122</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.8036759828174596</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>3.195644104938907</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.584369978590303</v>
+        <v>7.986573740760264</v>
       </c>
       <c r="C22">
-        <v>0.425375193608204</v>
+        <v>2.32485242317415</v>
       </c>
       <c r="D22">
-        <v>0.01493315219597235</v>
+        <v>0.6338543903197831</v>
       </c>
       <c r="E22">
-        <v>0.04447631649002126</v>
+        <v>3.242854261593649</v>
       </c>
       <c r="F22">
-        <v>4.964175683777171</v>
+        <v>13.02354365974963</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1219880794196513</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3377034097486558</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.8181553663515473</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>3.18593570000948</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.530101204993741</v>
+        <v>7.584561878587294</v>
       </c>
       <c r="C23">
-        <v>0.413438780226727</v>
+        <v>2.204521223113773</v>
       </c>
       <c r="D23">
-        <v>0.01439150286925184</v>
+        <v>0.6027465007992987</v>
       </c>
       <c r="E23">
-        <v>0.04428995656826817</v>
+        <v>3.062441503718446</v>
       </c>
       <c r="F23">
-        <v>4.94574183283612</v>
+        <v>12.39051988212776</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1220598182156607</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3365901982488708</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.8103934897450955</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>3.191049029965455</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.328875343405912</v>
+        <v>6.178815561461818</v>
       </c>
       <c r="C24">
-        <v>0.3685882965559699</v>
+        <v>1.78753281817967</v>
       </c>
       <c r="D24">
-        <v>0.01234598318099955</v>
+        <v>0.4951400433988908</v>
       </c>
       <c r="E24">
-        <v>0.04357561324790993</v>
+        <v>2.448787904000724</v>
       </c>
       <c r="F24">
-        <v>4.879957503037161</v>
+        <v>10.18095814634884</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1223410042804325</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3326252918427883</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7817411580025464</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>3.211910278156822</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.120953628334291</v>
+        <v>4.826028893508237</v>
       </c>
       <c r="C25">
-        <v>0.3209497907135983</v>
+        <v>1.39111605090693</v>
       </c>
       <c r="D25">
-        <v>0.01014922713522282</v>
+        <v>0.3933856390596588</v>
       </c>
       <c r="E25">
-        <v>0.04278624686196775</v>
+        <v>1.880604580108312</v>
       </c>
       <c r="F25">
-        <v>4.81754446409326</v>
+        <v>8.063775557493216</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1226646562850209</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3288852361706773</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7524166107989032</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>3.237584629830593</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_0/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,34 +415,40 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.914359168898272</v>
+        <v>3.469011592393883</v>
       </c>
       <c r="C2">
-        <v>1.126166936818521</v>
+        <v>1.021860864717723</v>
       </c>
       <c r="D2">
-        <v>0.3258754530982628</v>
+        <v>0.345883679821597</v>
       </c>
       <c r="E2">
-        <v>1.508533817718785</v>
+        <v>1.353683879945791</v>
       </c>
       <c r="F2">
-        <v>6.6445235028269</v>
+        <v>6.452836240317794</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01113859335798506</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.00375459660703914</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -462,34 +468,40 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.330642336703704</v>
+        <v>3.007426218724959</v>
       </c>
       <c r="C3">
-        <v>0.9572611794098691</v>
+        <v>0.882495996475285</v>
       </c>
       <c r="D3">
-        <v>0.283131659581457</v>
+        <v>0.3031011142505378</v>
       </c>
       <c r="E3">
-        <v>1.274478987757249</v>
+        <v>1.164929209104798</v>
       </c>
       <c r="F3">
-        <v>5.74008112786484</v>
+        <v>5.639920025744971</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.006523286070125867</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001126947876521012</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -509,34 +521,40 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.984560682169729</v>
+        <v>2.726118036786715</v>
       </c>
       <c r="C4">
-        <v>0.857325550359775</v>
+        <v>0.7987546882678487</v>
       </c>
       <c r="D4">
-        <v>0.2579759541252713</v>
+        <v>0.2768169867672725</v>
       </c>
       <c r="E4">
-        <v>1.137158925354299</v>
+        <v>1.050780429963453</v>
       </c>
       <c r="F4">
-        <v>5.205753057272489</v>
+        <v>5.143305393537901</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.004249831763293743</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0004789386768653259</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -556,34 +574,40 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.846075309607784</v>
+        <v>2.611839370048244</v>
       </c>
       <c r="C5">
-        <v>0.8173694701355601</v>
+        <v>0.7665372401730508</v>
       </c>
       <c r="D5">
-        <v>0.2479501194265339</v>
+        <v>0.264875625703155</v>
       </c>
       <c r="E5">
-        <v>1.082501668388758</v>
+        <v>1.004570121369113</v>
       </c>
       <c r="F5">
-        <v>4.992389693943181</v>
+        <v>4.927549603468947</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.003445900418873382</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0005003636661573552</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -603,34 +627,40 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.823219155933657</v>
+        <v>2.592798102614665</v>
       </c>
       <c r="C6">
-        <v>0.8107764951693071</v>
+        <v>0.7630585986810274</v>
       </c>
       <c r="D6">
-        <v>0.2462976683818283</v>
+        <v>0.2614141850518621</v>
       </c>
       <c r="E6">
-        <v>1.073496571775649</v>
+        <v>0.9968384907395915</v>
       </c>
       <c r="F6">
-        <v>4.957201619896153</v>
+        <v>4.874935878556641</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.003313688035798901</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0006041873337165882</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -650,34 +680,40 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.982683379503442</v>
+        <v>2.724311823131302</v>
       </c>
       <c r="C7">
-        <v>0.8567837937612239</v>
+        <v>0.8033689126937134</v>
       </c>
       <c r="D7">
-        <v>0.2578398885760578</v>
+        <v>0.2725864070509942</v>
       </c>
       <c r="E7">
-        <v>1.136416892277992</v>
+        <v>1.049928209706778</v>
       </c>
       <c r="F7">
-        <v>5.202858922663552</v>
+        <v>5.094198923027335</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.004219396111079687</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0006936530302574795</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -697,34 +733,40 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.710173144605051</v>
+        <v>3.308902216886906</v>
       </c>
       <c r="C8">
-        <v>1.067026413432529</v>
+        <v>0.9800930657349056</v>
       </c>
       <c r="D8">
-        <v>0.3108795245654363</v>
+        <v>0.3255981066706113</v>
       </c>
       <c r="E8">
-        <v>1.426303381906834</v>
+        <v>1.287835512273062</v>
       </c>
       <c r="F8">
-        <v>6.327722628874341</v>
+        <v>6.109457475727254</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.009384658035615973</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.002848585562690076</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -744,34 +786,40 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.265612434942341</v>
+        <v>4.477765696643075</v>
       </c>
       <c r="C9">
-        <v>1.519464088145469</v>
+        <v>1.335064853993742</v>
       </c>
       <c r="D9">
-        <v>0.4262493254929893</v>
+        <v>0.4377660521217308</v>
       </c>
       <c r="E9">
-        <v>2.063029095768698</v>
+        <v>1.77217049457434</v>
       </c>
       <c r="F9">
-        <v>8.750478421224159</v>
+        <v>8.218493594963434</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.02468351707386152</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.01563464254944069</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -791,34 +839,40 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.544014937011468</v>
+        <v>5.353061617035053</v>
       </c>
       <c r="C10">
-        <v>1.895328471866549</v>
+        <v>1.609228068759649</v>
       </c>
       <c r="D10">
-        <v>0.5229169158366176</v>
+        <v>0.4974241334507497</v>
       </c>
       <c r="E10">
-        <v>2.605783700959023</v>
+        <v>2.036752382280596</v>
       </c>
       <c r="F10">
-        <v>10.75424082456163</v>
+        <v>9.532796148470084</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.03876215825391593</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.03143500498223517</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -838,34 +892,40 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.173871963502734</v>
+        <v>5.717335597828821</v>
       </c>
       <c r="C11">
-        <v>2.082108635262841</v>
+        <v>1.709277877030047</v>
       </c>
       <c r="D11">
-        <v>0.5711190794094421</v>
+        <v>0.3445206894515849</v>
       </c>
       <c r="E11">
-        <v>2.880487308587078</v>
+        <v>1.332578271195118</v>
       </c>
       <c r="F11">
-        <v>11.74426785788376</v>
+        <v>7.986060767815474</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.05310200936765241</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.03352720109775476</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -885,34 +945,40 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.421644431583047</v>
+        <v>5.842270279576212</v>
       </c>
       <c r="C12">
-        <v>2.155900022332048</v>
+        <v>1.730270927171375</v>
       </c>
       <c r="D12">
-        <v>0.5901816606651096</v>
+        <v>0.2347933616326117</v>
       </c>
       <c r="E12">
-        <v>2.989983930174873</v>
+        <v>0.8203140205408346</v>
       </c>
       <c r="F12">
-        <v>12.13409822220422</v>
+        <v>6.621554741140756</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.08729021839531015</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.03190847307126266</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -932,34 +998,40 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.367823890402406</v>
+        <v>5.789015640977368</v>
       </c>
       <c r="C13">
-        <v>2.139855567027553</v>
+        <v>1.700020546434587</v>
       </c>
       <c r="D13">
-        <v>0.5860361389526929</v>
+        <v>0.1459429037387778</v>
       </c>
       <c r="E13">
-        <v>2.966128155601922</v>
+        <v>0.4279166647295156</v>
       </c>
       <c r="F13">
-        <v>12.0494044759829</v>
+        <v>5.255122895374114</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1380835277082326</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.02770712639422612</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -979,34 +1051,40 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.194054377950806</v>
+        <v>5.672343455190401</v>
       </c>
       <c r="C14">
-        <v>2.088112497045074</v>
+        <v>1.658360723366513</v>
       </c>
       <c r="D14">
-        <v>0.572669716718309</v>
+        <v>0.09624954436909405</v>
       </c>
       <c r="E14">
-        <v>2.889375306820199</v>
+        <v>0.2273289108355385</v>
       </c>
       <c r="F14">
-        <v>11.7760145325538</v>
+        <v>4.316174672005275</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1840199874014132</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.02400547098758743</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1026,34 +1104,40 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.088904821411916</v>
+        <v>5.605746308507321</v>
       </c>
       <c r="C15">
-        <v>2.05684576932731</v>
+        <v>1.639288884221742</v>
       </c>
       <c r="D15">
-        <v>0.5645950867809404</v>
+        <v>0.08503719055227066</v>
       </c>
       <c r="E15">
-        <v>2.843128857796899</v>
+        <v>0.1870956428553896</v>
       </c>
       <c r="F15">
-        <v>11.61063028757542</v>
+        <v>4.060381367476481</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1953766633514675</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.02265491307935985</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1073,34 +1157,40 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.50400352544932</v>
+        <v>5.241291209941835</v>
       </c>
       <c r="C16">
-        <v>1.883500865547205</v>
+        <v>1.533150720907713</v>
       </c>
       <c r="D16">
-        <v>0.5198674745137737</v>
+        <v>0.08236658395773588</v>
       </c>
       <c r="E16">
-        <v>2.588503621290783</v>
+        <v>0.1765754033928886</v>
       </c>
       <c r="F16">
-        <v>10.69140251426285</v>
+        <v>3.822440562515709</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.178636741573186</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01743067647423935</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1120,34 +1210,40 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.15895970797834</v>
+        <v>5.023843307058655</v>
       </c>
       <c r="C17">
-        <v>1.781682087095987</v>
+        <v>1.47365098140466</v>
       </c>
       <c r="D17">
-        <v>0.4936334766608468</v>
+        <v>0.103314271656906</v>
       </c>
       <c r="E17">
-        <v>2.440298193353556</v>
+        <v>0.259660947893515</v>
       </c>
       <c r="F17">
-        <v>10.14980673568229</v>
+        <v>4.112457099653994</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1394225125439164</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01531757462804251</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1167,34 +1263,40 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.964870503361851</v>
+        <v>4.907622235161853</v>
       </c>
       <c r="C18">
-        <v>1.724545184918725</v>
+        <v>1.443278390973262</v>
       </c>
       <c r="D18">
-        <v>0.4789269749353764</v>
+        <v>0.1599894076873483</v>
       </c>
       <c r="E18">
-        <v>2.357557198201334</v>
+        <v>0.4968619822184834</v>
       </c>
       <c r="F18">
-        <v>9.845408758620863</v>
+        <v>4.98317967055624</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.08763874446295006</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01520015362055194</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1214,34 +1316,40 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.899848177217393</v>
+        <v>4.882414802345409</v>
       </c>
       <c r="C19">
-        <v>1.705425019204597</v>
+        <v>1.451179838986491</v>
       </c>
       <c r="D19">
-        <v>0.4740082858555752</v>
+        <v>0.2554309197415137</v>
       </c>
       <c r="E19">
-        <v>2.32993637957702</v>
+        <v>0.9419771787818831</v>
       </c>
       <c r="F19">
-        <v>9.743475328211673</v>
+        <v>6.306661355478184</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.04642947035745948</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01744009710503036</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1261,34 +1369,40 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.195223673441205</v>
+        <v>5.11955239877534</v>
       </c>
       <c r="C20">
-        <v>1.792368411244809</v>
+        <v>1.551843424259403</v>
       </c>
       <c r="D20">
-        <v>0.496385298387338</v>
+        <v>0.4671969071152517</v>
       </c>
       <c r="E20">
-        <v>2.455807017030594</v>
+        <v>1.960633764796171</v>
       </c>
       <c r="F20">
-        <v>10.20670192538608</v>
+        <v>9.021661065950155</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.03452929122076576</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.02703594622133565</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1308,34 +1422,40 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.244820566280453</v>
+        <v>5.807672759244838</v>
       </c>
       <c r="C21">
-        <v>2.103219748299352</v>
+        <v>1.772013572664036</v>
       </c>
       <c r="D21">
-        <v>0.5765718000773177</v>
+        <v>0.5506185055730271</v>
       </c>
       <c r="E21">
-        <v>2.911756093989695</v>
+        <v>2.335558391679655</v>
       </c>
       <c r="F21">
-        <v>11.85587483858484</v>
+        <v>10.46718538230971</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0489693828398412</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.04308686461131561</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1355,34 +1475,40 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.986573740760264</v>
+        <v>6.263163369224515</v>
       </c>
       <c r="C22">
-        <v>2.32485242317415</v>
+        <v>1.911761852741847</v>
       </c>
       <c r="D22">
-        <v>0.6338543903197831</v>
+        <v>0.6008153418076176</v>
       </c>
       <c r="E22">
-        <v>3.242854261593649</v>
+        <v>2.532010152372891</v>
       </c>
       <c r="F22">
-        <v>13.02354365974963</v>
+        <v>11.36734425022314</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.05902080928144038</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.0551487315617889</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1402,34 +1528,40 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.584561878587294</v>
+        <v>6.020185172135825</v>
       </c>
       <c r="C23">
-        <v>2.204521223113773</v>
+        <v>1.830722725641294</v>
       </c>
       <c r="D23">
-        <v>0.6027465007992987</v>
+        <v>0.579308618000681</v>
       </c>
       <c r="E23">
-        <v>3.062441503718446</v>
+        <v>2.427235178077282</v>
       </c>
       <c r="F23">
-        <v>12.39051988212776</v>
+        <v>10.94508252591754</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.05362660949708875</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.04844006406209189</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1449,34 +1581,40 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.178815561461818</v>
+        <v>5.112870350126343</v>
       </c>
       <c r="C24">
-        <v>1.78753281817967</v>
+        <v>1.542418162858837</v>
       </c>
       <c r="D24">
-        <v>0.4951400433988908</v>
+        <v>0.491092662063437</v>
       </c>
       <c r="E24">
-        <v>2.448787904000724</v>
+        <v>2.03954418003454</v>
       </c>
       <c r="F24">
-        <v>10.18095814634884</v>
+        <v>9.28438459272445</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.03539875506675561</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.02717145967847934</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1496,34 +1634,40 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.826028893508237</v>
+        <v>4.157600708483187</v>
       </c>
       <c r="C25">
-        <v>1.39111605090693</v>
+        <v>1.245914403592906</v>
       </c>
       <c r="D25">
-        <v>0.3933856390596588</v>
+        <v>0.3994381108935698</v>
       </c>
       <c r="E25">
-        <v>1.880604580108312</v>
+        <v>1.638158791497887</v>
       </c>
       <c r="F25">
-        <v>8.063775557493216</v>
+        <v>7.554878834579938</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.01981917451822257</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.0112904188781382</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,6 +1685,12 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_0/res_line/pl_mw.xlsx
@@ -427,43 +427,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.469011592393883</v>
+        <v>0.956140796269068</v>
       </c>
       <c r="C2">
-        <v>1.021860864717723</v>
+        <v>0.15900708755143</v>
       </c>
       <c r="D2">
-        <v>0.345883679821597</v>
+        <v>0.005043315098229417</v>
       </c>
       <c r="E2">
-        <v>1.353683879945791</v>
+        <v>0.01340457443459364</v>
       </c>
       <c r="F2">
-        <v>6.452836240317794</v>
+        <v>3.154037444716565</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01113859335798506</v>
+        <v>0.04311626980804162</v>
       </c>
       <c r="I2">
-        <v>0.00375459660703914</v>
+        <v>0.05721842803638477</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2.046771444283237</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.05988879959687665</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.053670662352886</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1775815057853691</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -480,43 +480,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.007426218724959</v>
+        <v>0.8366025064731559</v>
       </c>
       <c r="C3">
-        <v>0.882495996475285</v>
+        <v>0.1381913326310524</v>
       </c>
       <c r="D3">
-        <v>0.3031011142505378</v>
+        <v>0.005109710874465323</v>
       </c>
       <c r="E3">
-        <v>1.164929209104798</v>
+        <v>0.01171277533676474</v>
       </c>
       <c r="F3">
-        <v>5.639920025744971</v>
+        <v>2.930293286779076</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.006523286070125867</v>
+        <v>0.05097056615325268</v>
       </c>
       <c r="I3">
-        <v>0.001126947876521012</v>
+        <v>0.0665632146195887</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.912285751662537</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.0534943589267769</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.9212702128117769</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1566961188261189</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -533,43 +533,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.726118036786715</v>
+        <v>0.763420788237795</v>
       </c>
       <c r="C4">
-        <v>0.7987546882678487</v>
+        <v>0.1257434158767552</v>
       </c>
       <c r="D4">
-        <v>0.2768169867672725</v>
+        <v>0.005138051146845068</v>
       </c>
       <c r="E4">
-        <v>1.050780429963453</v>
+        <v>0.01068859273770784</v>
       </c>
       <c r="F4">
-        <v>5.143305393537901</v>
+        <v>2.792187522793114</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.004249831763293743</v>
+        <v>0.05629584080980887</v>
       </c>
       <c r="I4">
-        <v>0.0004789386768653259</v>
+        <v>0.07289198219109938</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.828835017825043</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.04954824554659965</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.8405608898876835</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.143971709379791</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -586,43 +586,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.611839370048244</v>
+        <v>0.7335000695912584</v>
       </c>
       <c r="C5">
-        <v>0.7665372401730508</v>
+        <v>0.1209681150842385</v>
       </c>
       <c r="D5">
-        <v>0.264875625703155</v>
+        <v>0.005131237174371694</v>
       </c>
       <c r="E5">
-        <v>1.004570121369113</v>
+        <v>0.0102775579787453</v>
       </c>
       <c r="F5">
-        <v>4.927549603468947</v>
+        <v>2.731236135821334</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.003445900418873382</v>
+        <v>0.05860875302573554</v>
       </c>
       <c r="I5">
-        <v>0.0005003636661573552</v>
+        <v>0.07574575787719651</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.791186946846466</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.0478389961136898</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.8080058530143788</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1389749554129907</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -639,43 +639,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.592798102614665</v>
+        <v>0.7283594327541039</v>
       </c>
       <c r="C6">
-        <v>0.7630585986810274</v>
+        <v>0.1204498192676056</v>
       </c>
       <c r="D6">
-        <v>0.2614141850518621</v>
+        <v>0.00511190855197563</v>
       </c>
       <c r="E6">
-        <v>0.9968384907395915</v>
+        <v>0.0102135088497004</v>
       </c>
       <c r="F6">
-        <v>4.874935878556641</v>
+        <v>2.715635966266476</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.003313688035798901</v>
+        <v>0.0590253023051277</v>
       </c>
       <c r="I6">
-        <v>0.0006041873337165882</v>
+        <v>0.076395289999863</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.78075133048398</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.04743904820827893</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.8028570305472158</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1383503141173179</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -692,43 +692,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.724311823131302</v>
+        <v>0.7625345596210877</v>
       </c>
       <c r="C7">
-        <v>0.8033689126937134</v>
+        <v>0.1264173385456928</v>
       </c>
       <c r="D7">
-        <v>0.2725864070509942</v>
+        <v>0.005088063135610721</v>
       </c>
       <c r="E7">
-        <v>1.049928209706778</v>
+        <v>0.01069404670007046</v>
       </c>
       <c r="F7">
-        <v>5.094198923027335</v>
+        <v>2.776417088640912</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.004219396111079687</v>
+        <v>0.05639302142459002</v>
       </c>
       <c r="I7">
-        <v>0.0006936530302574795</v>
+        <v>0.07336460328171768</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.816921564504042</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.04920764485095219</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.8407997686515785</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.144461931755103</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -745,43 +745,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.308902216886906</v>
+        <v>0.9142102448249148</v>
       </c>
       <c r="C8">
-        <v>0.9800930657349056</v>
+        <v>0.1527385124681757</v>
       </c>
       <c r="D8">
-        <v>0.3255981066706113</v>
+        <v>0.00500297989524956</v>
       </c>
       <c r="E8">
-        <v>1.287835512273062</v>
+        <v>0.0128323031517672</v>
       </c>
       <c r="F8">
-        <v>6.109457475727254</v>
+        <v>3.057200299437056</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.009384658035615973</v>
+        <v>0.04579435085154282</v>
       </c>
       <c r="I8">
-        <v>0.002848585562690076</v>
+        <v>0.06083217756445336</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.985442811865653</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.05726083636836776</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.008771703620283</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1711016927548386</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -798,43 +798,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.477765696643075</v>
+        <v>1.214761326732173</v>
       </c>
       <c r="C9">
-        <v>1.335064853993742</v>
+        <v>0.2059951658961126</v>
       </c>
       <c r="D9">
-        <v>0.4377660521217308</v>
+        <v>0.004825187757835803</v>
       </c>
       <c r="E9">
-        <v>1.77217049457434</v>
+        <v>0.01715205808953435</v>
       </c>
       <c r="F9">
-        <v>8.218493594963434</v>
+        <v>3.629702803030114</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.02468351707386152</v>
+        <v>0.0291028302534202</v>
       </c>
       <c r="I9">
-        <v>0.01563464254944069</v>
+        <v>0.0405163454041757</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.329807203136696</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.07354401980651204</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.342411163224881</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2232530569038573</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -851,43 +851,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.353061617035053</v>
+        <v>1.437320151505389</v>
       </c>
       <c r="C10">
-        <v>1.609228068759649</v>
+        <v>0.2476791300692298</v>
       </c>
       <c r="D10">
-        <v>0.4974241334507497</v>
+        <v>0.004457285504360087</v>
       </c>
       <c r="E10">
-        <v>2.036752382280596</v>
+        <v>0.01949380530071743</v>
       </c>
       <c r="F10">
-        <v>9.532796148470084</v>
+        <v>3.964805645037075</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.03876215825391593</v>
+        <v>0.0203144793315313</v>
       </c>
       <c r="I10">
-        <v>0.03143500498223517</v>
+        <v>0.02939875534950254</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.521751134168483</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.08141781694210337</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.592080434545409</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2545962256738648</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -904,43 +904,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.717335597828821</v>
+        <v>1.537237154997058</v>
       </c>
       <c r="C11">
-        <v>1.709277877030047</v>
+        <v>0.2674376553424338</v>
       </c>
       <c r="D11">
-        <v>0.3445206894515849</v>
+        <v>0.00336896022937383</v>
       </c>
       <c r="E11">
-        <v>1.332578271195118</v>
+        <v>0.01359581140170096</v>
       </c>
       <c r="F11">
-        <v>7.986060767815474</v>
+        <v>3.457402381428949</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.05310200936765241</v>
+        <v>0.03844125354471473</v>
       </c>
       <c r="I11">
-        <v>0.03352720109775476</v>
+        <v>0.02786860026064542</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.161364983301951</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.05651790406298218</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.705205817691223</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2042132700840256</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -957,43 +957,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.842270279576212</v>
+        <v>1.575184204089481</v>
       </c>
       <c r="C12">
-        <v>1.730270927171375</v>
+        <v>0.2738897386972212</v>
       </c>
       <c r="D12">
-        <v>0.2347933616326117</v>
+        <v>0.003083239896706225</v>
       </c>
       <c r="E12">
-        <v>0.8203140205408346</v>
+        <v>0.01003935200219841</v>
       </c>
       <c r="F12">
-        <v>6.621554741140756</v>
+        <v>3.013041851711122</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.08729021839531015</v>
+        <v>0.07774722060106853</v>
       </c>
       <c r="I12">
-        <v>0.03190847307126266</v>
+        <v>0.02789529532480994</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.860372498987886</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.04294612228613381</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.746462363547749</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1594931861536324</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1010,43 +1010,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.789015640977368</v>
+        <v>1.566451161026777</v>
       </c>
       <c r="C13">
-        <v>1.700020546434587</v>
+        <v>0.2714899921468827</v>
       </c>
       <c r="D13">
-        <v>0.1459429037387778</v>
+        <v>0.003274135213283458</v>
       </c>
       <c r="E13">
-        <v>0.4279166647295156</v>
+        <v>0.008084279965379748</v>
       </c>
       <c r="F13">
-        <v>5.255122895374114</v>
+        <v>2.56944121461791</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1380835277082326</v>
+        <v>0.135152698745685</v>
       </c>
       <c r="I13">
-        <v>0.02770712639422612</v>
+        <v>0.02965752003883804</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.57063167185548</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.03678467280069153</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.735367948599702</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1177376203333438</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1063,43 +1063,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.672343455190401</v>
+        <v>1.539106317133303</v>
       </c>
       <c r="C14">
-        <v>1.658360723366513</v>
+        <v>0.2660677086321073</v>
       </c>
       <c r="D14">
-        <v>0.09624954436909405</v>
+        <v>0.003676294897365651</v>
       </c>
       <c r="E14">
-        <v>0.2273289108355385</v>
+        <v>0.007705019766997001</v>
       </c>
       <c r="F14">
-        <v>4.316174672005275</v>
+        <v>2.262510898395192</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1840199874014132</v>
+        <v>0.1861310804173115</v>
       </c>
       <c r="I14">
-        <v>0.02400547098758743</v>
+        <v>0.03183932013758373</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.375353075029423</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.03697423085458773</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.704214975412299</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.09097433416223311</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1116,43 +1116,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.605746308507321</v>
+        <v>1.522307315369432</v>
       </c>
       <c r="C15">
-        <v>1.639288884221742</v>
+        <v>0.2631963866126341</v>
       </c>
       <c r="D15">
-        <v>0.08503719055227066</v>
+        <v>0.003843105580115136</v>
       </c>
       <c r="E15">
-        <v>0.1870956428553896</v>
+        <v>0.00770077950510295</v>
       </c>
       <c r="F15">
-        <v>4.060381367476481</v>
+        <v>2.180517466958747</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1953766633514675</v>
+        <v>0.1993861273887489</v>
       </c>
       <c r="I15">
-        <v>0.02265491307935985</v>
+        <v>0.03296093852107784</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.324383619221514</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.03749446254114197</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.685798060150944</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.08459185689875426</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1169,43 +1169,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.241291209941835</v>
+        <v>1.427717374508489</v>
       </c>
       <c r="C16">
-        <v>1.533150720907713</v>
+        <v>0.2458727567494918</v>
       </c>
       <c r="D16">
-        <v>0.08236658395773588</v>
+        <v>0.003905940448971634</v>
       </c>
       <c r="E16">
-        <v>0.1765754033928886</v>
+        <v>0.007157295094823768</v>
       </c>
       <c r="F16">
-        <v>3.822440562515709</v>
+        <v>2.12884978632114</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.178636741573186</v>
+        <v>0.1903065485740711</v>
       </c>
       <c r="I16">
-        <v>0.01743067647423935</v>
+        <v>0.03750546046356185</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.301682626030313</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.03564643560948788</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.580515164348327</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.08122936943355796</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1222,43 +1222,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.023843307058655</v>
+        <v>1.369859442481442</v>
       </c>
       <c r="C17">
-        <v>1.47365098140466</v>
+        <v>0.2355954096266686</v>
       </c>
       <c r="D17">
-        <v>0.103314271656906</v>
+        <v>0.003711538602633624</v>
       </c>
       <c r="E17">
-        <v>0.259660947893515</v>
+        <v>0.006760190342802452</v>
       </c>
       <c r="F17">
-        <v>4.112457099653994</v>
+        <v>2.247096441320124</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1394225125439164</v>
+        <v>0.1545121134063265</v>
       </c>
       <c r="I17">
-        <v>0.01531757462804251</v>
+        <v>0.03990310692482968</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.384024150464143</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.03326719592992955</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.516593918822082</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.09218279335428292</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1275,43 +1275,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.907622235161853</v>
+        <v>1.337111613067151</v>
       </c>
       <c r="C18">
-        <v>1.443278390973262</v>
+        <v>0.2293720138151372</v>
       </c>
       <c r="D18">
-        <v>0.1599894076873483</v>
+        <v>0.003437278992257653</v>
       </c>
       <c r="E18">
-        <v>0.4968619822184834</v>
+        <v>0.007381777294487968</v>
       </c>
       <c r="F18">
-        <v>4.98317967055624</v>
+        <v>2.551466892361788</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.08763874446295006</v>
+        <v>0.101931622860981</v>
       </c>
       <c r="I18">
-        <v>0.01520015362055194</v>
+        <v>0.04003802812270507</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.586759257969135</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.03437282184863388</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.479892550895983</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1191743897711035</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1328,43 +1328,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.882414802345409</v>
+        <v>1.325764883468111</v>
       </c>
       <c r="C19">
-        <v>1.451179838986491</v>
+        <v>0.2282458402223995</v>
       </c>
       <c r="D19">
-        <v>0.2554309197415137</v>
+        <v>0.003535427801430568</v>
       </c>
       <c r="E19">
-        <v>0.9419771787818831</v>
+        <v>0.01019836242551975</v>
       </c>
       <c r="F19">
-        <v>6.306661355478184</v>
+        <v>2.989571040433759</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.04642947035745948</v>
+        <v>0.05506183589662328</v>
       </c>
       <c r="I19">
-        <v>0.01744009710503036</v>
+        <v>0.0389062980604864</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.877653834019341</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.04435627284351007</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.468823316359419</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1622774651128438</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1381,43 +1381,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.11955239877534</v>
+        <v>1.377013690421165</v>
       </c>
       <c r="C20">
-        <v>1.551843424259403</v>
+        <v>0.238903312044215</v>
       </c>
       <c r="D20">
-        <v>0.4671969071152517</v>
+        <v>0.004425165629206917</v>
       </c>
       <c r="E20">
-        <v>1.960633764796171</v>
+        <v>0.01885925517707854</v>
       </c>
       <c r="F20">
-        <v>9.021661065950155</v>
+        <v>3.827217467502976</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.03452929122076576</v>
+        <v>0.02255227809694871</v>
       </c>
       <c r="I20">
-        <v>0.02703594622133565</v>
+        <v>0.0332341846476174</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.43396551948193</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.07816813284429003</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.528173249544636</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2477553658803231</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1434,43 +1434,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.807672759244838</v>
+        <v>1.549138581477763</v>
       </c>
       <c r="C21">
-        <v>1.772013572664036</v>
+        <v>0.2714378978198511</v>
       </c>
       <c r="D21">
-        <v>0.5506185055730271</v>
+        <v>0.004380755906254308</v>
       </c>
       <c r="E21">
-        <v>2.335558391679655</v>
+        <v>0.02220924376697653</v>
       </c>
       <c r="F21">
-        <v>10.46718538230971</v>
+        <v>4.211778126924912</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.0489693828398412</v>
+        <v>0.01583050657915441</v>
       </c>
       <c r="I21">
-        <v>0.04308686461131561</v>
+        <v>0.02511597596692283</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.667934989884159</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.09058470969535648</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.72149065560393</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2841210390492108</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1487,43 +1487,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.263163369224515</v>
+        <v>1.662973320778264</v>
       </c>
       <c r="C22">
-        <v>1.911761852741847</v>
+        <v>0.2922536343155286</v>
       </c>
       <c r="D22">
-        <v>0.6008153418076176</v>
+        <v>0.004322228143974316</v>
       </c>
       <c r="E22">
-        <v>2.532010152372891</v>
+        <v>0.02392950947240458</v>
       </c>
       <c r="F22">
-        <v>11.36734425022314</v>
+        <v>4.444147681205152</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.05902080928144038</v>
+        <v>0.01232351856274855</v>
       </c>
       <c r="I22">
-        <v>0.0551487315617889</v>
+        <v>0.02025754594460061</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.809078938243715</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.09717737031336071</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.848125867237684</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3032588286082216</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1540,43 +1540,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.020185172135825</v>
+        <v>1.60281643647258</v>
       </c>
       <c r="C23">
-        <v>1.830722725641294</v>
+        <v>0.2801973235767434</v>
       </c>
       <c r="D23">
-        <v>0.579308618000681</v>
+        <v>0.004403956139819698</v>
       </c>
       <c r="E23">
-        <v>2.427235178077282</v>
+        <v>0.02299499646113112</v>
       </c>
       <c r="F23">
-        <v>10.94508252591754</v>
+        <v>4.337874080541013</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.05362660949708875</v>
+        <v>0.01410047062423891</v>
       </c>
       <c r="I23">
-        <v>0.04844006406209189</v>
+        <v>0.02237031077245</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.747332913524517</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.09405152882647627</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.779677073893964</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2923444751149873</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1593,43 +1593,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.112870350126343</v>
+        <v>1.37526336458518</v>
       </c>
       <c r="C24">
-        <v>1.542418162858837</v>
+        <v>0.2370969368251394</v>
       </c>
       <c r="D24">
-        <v>0.491092662063437</v>
+        <v>0.004612496626362761</v>
       </c>
       <c r="E24">
-        <v>2.03954418003454</v>
+        <v>0.01955618956714034</v>
       </c>
       <c r="F24">
-        <v>9.28438459272445</v>
+        <v>3.90816204176619</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.03539875506675561</v>
+        <v>0.0221305744377116</v>
       </c>
       <c r="I24">
-        <v>0.02717145967847934</v>
+        <v>0.03244585721625537</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.491669442223468</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.08168486398587049</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.524071910539249</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2524724671905005</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1646,43 +1646,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.157600708483187</v>
+        <v>1.132192372193288</v>
       </c>
       <c r="C25">
-        <v>1.245914403592906</v>
+        <v>0.1925738188881212</v>
       </c>
       <c r="D25">
-        <v>0.3994381108935698</v>
+        <v>0.004800638877207497</v>
       </c>
       <c r="E25">
-        <v>1.638158791497887</v>
+        <v>0.01598289366406114</v>
       </c>
       <c r="F25">
-        <v>7.554878834579938</v>
+        <v>3.44809866848226</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.01981917451822257</v>
+        <v>0.03322520670206552</v>
       </c>
       <c r="I25">
-        <v>0.0112904188781382</v>
+        <v>0.04612562587991764</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2.216596152124666</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.06854579678202199</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.252633865324725</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2100548682253844</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_0/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.956140796269068</v>
+        <v>0.9239500309416258</v>
       </c>
       <c r="C2">
-        <v>0.15900708755143</v>
+        <v>0.2061316525495016</v>
       </c>
       <c r="D2">
-        <v>0.005043315098229417</v>
+        <v>0.006100434219602491</v>
       </c>
       <c r="E2">
-        <v>0.01340457443459364</v>
+        <v>0.01528922789110787</v>
       </c>
       <c r="F2">
-        <v>3.154037444716565</v>
+        <v>2.281481547527008</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.04311626980804162</v>
+        <v>0.03435847434245098</v>
       </c>
       <c r="I2">
-        <v>0.05721842803638477</v>
+        <v>0.04217404074920861</v>
       </c>
       <c r="J2">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153801</v>
       </c>
       <c r="K2">
-        <v>2.046771444283237</v>
+        <v>1.370799294809444</v>
       </c>
       <c r="L2">
-        <v>0.05988879959687665</v>
+        <v>0.5097807526327713</v>
       </c>
       <c r="M2">
-        <v>1.053670662352886</v>
+        <v>0.5152581191947121</v>
       </c>
       <c r="N2">
-        <v>0.1775815057853691</v>
+        <v>0.04394484780018004</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.096084446928643</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2226893112654693</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8366025064731559</v>
+        <v>0.8067051447832796</v>
       </c>
       <c r="C3">
-        <v>0.1381913326310524</v>
+        <v>0.1793441513388956</v>
       </c>
       <c r="D3">
-        <v>0.005109710874465323</v>
+        <v>0.005415800782925473</v>
       </c>
       <c r="E3">
-        <v>0.01171277533676474</v>
+        <v>0.01345799664089675</v>
       </c>
       <c r="F3">
-        <v>2.930293286779076</v>
+        <v>2.163638601246817</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.05097056615325268</v>
+        <v>0.04070334277422782</v>
       </c>
       <c r="I3">
-        <v>0.0665632146195887</v>
+        <v>0.04913385881598398</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153705</v>
       </c>
       <c r="K3">
-        <v>1.912285751662537</v>
+        <v>1.314146796276582</v>
       </c>
       <c r="L3">
-        <v>0.0534943589267769</v>
+        <v>0.4967088275532348</v>
       </c>
       <c r="M3">
-        <v>0.9212702128117769</v>
+        <v>0.4881851529849399</v>
       </c>
       <c r="N3">
-        <v>0.1566961188261189</v>
+        <v>0.03997531441473612</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.9561762848451281</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1968555572150876</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.763420788237795</v>
+        <v>0.7347511485530731</v>
       </c>
       <c r="C4">
-        <v>0.1257434158767552</v>
+        <v>0.1633093127197469</v>
       </c>
       <c r="D4">
-        <v>0.005138051146845068</v>
+        <v>0.005020308955211661</v>
       </c>
       <c r="E4">
-        <v>0.01068859273770784</v>
+        <v>0.01234494658743834</v>
       </c>
       <c r="F4">
-        <v>2.792187522793114</v>
+        <v>2.090604190172826</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.05629584080980887</v>
+        <v>0.04501412966732365</v>
       </c>
       <c r="I4">
-        <v>0.07289198219109938</v>
+        <v>0.05387168686263877</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153784</v>
       </c>
       <c r="K4">
-        <v>1.828835017825043</v>
+        <v>1.278609525697917</v>
       </c>
       <c r="L4">
-        <v>0.04954824554659965</v>
+        <v>0.4879947593569369</v>
       </c>
       <c r="M4">
-        <v>0.8405608898876835</v>
+        <v>0.472248136145204</v>
       </c>
       <c r="N4">
-        <v>0.143971709379791</v>
+        <v>0.03750868546077868</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8707230831753634</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1811216960445421</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7335000695912584</v>
+        <v>0.7053088822791551</v>
       </c>
       <c r="C5">
-        <v>0.1209681150842385</v>
+        <v>0.1570779682129597</v>
       </c>
       <c r="D5">
-        <v>0.005131237174371694</v>
+        <v>0.004901833614473716</v>
       </c>
       <c r="E5">
-        <v>0.0102775579787453</v>
+        <v>0.0118964077784991</v>
       </c>
       <c r="F5">
-        <v>2.731236135821334</v>
+        <v>2.057616425754418</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.05860875302573554</v>
+        <v>0.04688736141970606</v>
       </c>
       <c r="I5">
-        <v>0.07574575787719651</v>
+        <v>0.05605023226822325</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153798</v>
       </c>
       <c r="K5">
-        <v>1.791186946846466</v>
+        <v>1.261744721402543</v>
       </c>
       <c r="L5">
-        <v>0.0478389961136898</v>
+        <v>0.4833740549837771</v>
       </c>
       <c r="M5">
-        <v>0.8080058530143788</v>
+        <v>0.4651863157953855</v>
       </c>
       <c r="N5">
-        <v>0.1389749554129907</v>
+        <v>0.03643417832429918</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8361684307960218</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1748887345894161</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7283594327541039</v>
+        <v>0.7002706514664396</v>
       </c>
       <c r="C6">
-        <v>0.1204498192676056</v>
+        <v>0.1563020754570772</v>
       </c>
       <c r="D6">
-        <v>0.00511190855197563</v>
+        <v>0.00492802935819725</v>
       </c>
       <c r="E6">
-        <v>0.0102135088497004</v>
+        <v>0.0118254198028378</v>
       </c>
       <c r="F6">
-        <v>2.715635966266476</v>
+        <v>2.048406658957575</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0590253023051277</v>
+        <v>0.04722340722165663</v>
       </c>
       <c r="I6">
-        <v>0.076395289999863</v>
+        <v>0.0565918917886794</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142333</v>
       </c>
       <c r="K6">
-        <v>1.78075133048398</v>
+        <v>1.25625738390152</v>
       </c>
       <c r="L6">
-        <v>0.04743904820827893</v>
+        <v>0.4815031122988032</v>
       </c>
       <c r="M6">
-        <v>0.8028570305472158</v>
+        <v>0.4631222630677385</v>
       </c>
       <c r="N6">
-        <v>0.1383503141173179</v>
+        <v>0.03618072566658981</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8306424084656783</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.174038443515208</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7625345596210877</v>
+        <v>0.7339426378860594</v>
       </c>
       <c r="C7">
-        <v>0.1264173385456928</v>
+        <v>0.1639182251080484</v>
       </c>
       <c r="D7">
-        <v>0.005088063135610721</v>
+        <v>0.005144911750768699</v>
       </c>
       <c r="E7">
-        <v>0.01069404670007046</v>
+        <v>0.01234809044015428</v>
       </c>
       <c r="F7">
-        <v>2.776417088640912</v>
+        <v>2.080018889402723</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.05639302142459002</v>
+        <v>0.0450888165040908</v>
       </c>
       <c r="I7">
-        <v>0.07336460328171768</v>
+        <v>0.05435019020519505</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.07593571568737367</v>
       </c>
       <c r="K7">
-        <v>1.816921564504042</v>
+        <v>1.271096705701638</v>
       </c>
       <c r="L7">
-        <v>0.04920764485095219</v>
+        <v>0.4849899569940845</v>
       </c>
       <c r="M7">
-        <v>0.8407997686515785</v>
+        <v>0.4696615451424222</v>
       </c>
       <c r="N7">
-        <v>0.144461931755103</v>
+        <v>0.03729066699934336</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8708174950577074</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1815387901655825</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9142102448249148</v>
+        <v>0.8829507708729238</v>
       </c>
       <c r="C8">
-        <v>0.1527385124681757</v>
+        <v>0.1977311752711586</v>
       </c>
       <c r="D8">
-        <v>0.00500297989524956</v>
+        <v>0.006036209946927329</v>
       </c>
       <c r="E8">
-        <v>0.0128323031517672</v>
+        <v>0.01466729531294853</v>
       </c>
       <c r="F8">
-        <v>3.057200299437056</v>
+        <v>2.227675741811581</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.04579435085154282</v>
+        <v>0.03651477909609624</v>
       </c>
       <c r="I8">
-        <v>0.06083217756445336</v>
+        <v>0.04501278968161149</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284103</v>
       </c>
       <c r="K8">
-        <v>1.985442811865653</v>
+        <v>1.341884910978848</v>
       </c>
       <c r="L8">
-        <v>0.05726083636836776</v>
+        <v>0.5017047999553981</v>
       </c>
       <c r="M8">
-        <v>1.008771703620283</v>
+        <v>0.5023759440758511</v>
       </c>
       <c r="N8">
-        <v>0.1711016927548386</v>
+        <v>0.04231236553669504</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.048474571794031</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2144238475103037</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.214761326732173</v>
+        <v>1.176566114732452</v>
       </c>
       <c r="C9">
-        <v>0.2059951658961126</v>
+        <v>0.2664131389763611</v>
       </c>
       <c r="D9">
-        <v>0.004825187757835803</v>
+        <v>0.007752435432802685</v>
       </c>
       <c r="E9">
-        <v>0.01715205808953435</v>
+        <v>0.01931548038371744</v>
       </c>
       <c r="F9">
-        <v>3.629702803030114</v>
+        <v>2.530263223149532</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0291028302534202</v>
+        <v>0.02308113443262472</v>
       </c>
       <c r="I9">
-        <v>0.0405163454041757</v>
+        <v>0.02987392276478662</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>2.329807203136696</v>
+        <v>1.487722974895817</v>
       </c>
       <c r="L9">
-        <v>0.07354401980651204</v>
+        <v>0.5339867758786241</v>
       </c>
       <c r="M9">
-        <v>1.342411163224881</v>
+        <v>0.5767383162760069</v>
       </c>
       <c r="N9">
-        <v>0.2232530569038573</v>
+        <v>0.05233603684162702</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.4001161464642</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2791559327950068</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.437320151505389</v>
+        <v>1.393492421897122</v>
       </c>
       <c r="C10">
-        <v>0.2476791300692298</v>
+        <v>0.3188623378348723</v>
       </c>
       <c r="D10">
-        <v>0.004457285504360087</v>
+        <v>0.009284856116870799</v>
       </c>
       <c r="E10">
-        <v>0.01949380530071743</v>
+        <v>0.02180451526961846</v>
       </c>
       <c r="F10">
-        <v>3.964805645037075</v>
+        <v>2.698464606133925</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0203144793315313</v>
+        <v>0.01607986778642312</v>
       </c>
       <c r="I10">
-        <v>0.02939875534950254</v>
+        <v>0.0217431934476684</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>2.521751134168483</v>
+        <v>1.559414076266592</v>
       </c>
       <c r="L10">
-        <v>0.08141781694210337</v>
+        <v>0.5429707503893795</v>
       </c>
       <c r="M10">
-        <v>1.592080434545409</v>
+        <v>0.6223861352650601</v>
       </c>
       <c r="N10">
-        <v>0.2545962256738648</v>
+        <v>0.05693656510556266</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.661256868325609</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3182205563208953</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.537237154997058</v>
+        <v>1.495901777842874</v>
       </c>
       <c r="C11">
-        <v>0.2674376553424338</v>
+        <v>0.3348036103665493</v>
       </c>
       <c r="D11">
-        <v>0.00336896022937383</v>
+        <v>0.0107825096730636</v>
       </c>
       <c r="E11">
-        <v>0.01359581140170096</v>
+        <v>0.0154031347266228</v>
       </c>
       <c r="F11">
-        <v>3.457402381428949</v>
+        <v>2.368028950661667</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.03844125354471473</v>
+        <v>0.03424078546968801</v>
       </c>
       <c r="I11">
-        <v>0.02786860026064542</v>
+        <v>0.02070995935979791</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>2.161364983301951</v>
+        <v>1.344541673550061</v>
       </c>
       <c r="L11">
-        <v>0.05651790406298218</v>
+        <v>0.4600068643383324</v>
       </c>
       <c r="M11">
-        <v>1.705205817691223</v>
+        <v>0.5457843098760549</v>
       </c>
       <c r="N11">
-        <v>0.2042132700840256</v>
+        <v>0.04170952490075841</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.772335962491809</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2575839954591288</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.575184204089481</v>
+        <v>1.537308034818665</v>
       </c>
       <c r="C12">
-        <v>0.2738897386972212</v>
+        <v>0.3355929427344506</v>
       </c>
       <c r="D12">
-        <v>0.003083239896706225</v>
+        <v>0.01156073158264448</v>
       </c>
       <c r="E12">
-        <v>0.01003935200219841</v>
+        <v>0.0114504285782262</v>
       </c>
       <c r="F12">
-        <v>3.013041851711122</v>
+        <v>2.087236798846902</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07774722060106853</v>
+        <v>0.07334321572706415</v>
       </c>
       <c r="I12">
-        <v>0.02789529532480994</v>
+        <v>0.02059585137783237</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>1.860372498987886</v>
+        <v>1.173401664356206</v>
       </c>
       <c r="L12">
-        <v>0.04294612228613381</v>
+        <v>0.3982772687526079</v>
       </c>
       <c r="M12">
-        <v>1.746462363547749</v>
+        <v>0.48006027584929</v>
       </c>
       <c r="N12">
-        <v>0.1594931861536324</v>
+        <v>0.03564376384452173</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.809470236465643</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2034681032533712</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.566451161026777</v>
+        <v>1.533069509269694</v>
       </c>
       <c r="C13">
-        <v>0.2714899921468827</v>
+        <v>0.3257321839729457</v>
       </c>
       <c r="D13">
-        <v>0.003274135213283458</v>
+        <v>0.01201677813726576</v>
       </c>
       <c r="E13">
-        <v>0.008084279965379748</v>
+        <v>0.00916102726742396</v>
       </c>
       <c r="F13">
-        <v>2.56944121461791</v>
+        <v>1.81255074345944</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.135152698745685</v>
+        <v>0.1303130750061285</v>
       </c>
       <c r="I13">
-        <v>0.02965752003883804</v>
+        <v>0.02175351737942499</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.102658464312043</v>
       </c>
       <c r="K13">
-        <v>1.57063167185548</v>
+        <v>1.014437329372875</v>
       </c>
       <c r="L13">
-        <v>0.03678467280069153</v>
+        <v>0.3439660248774672</v>
       </c>
       <c r="M13">
-        <v>1.735367948599702</v>
+        <v>0.4154687979078346</v>
       </c>
       <c r="N13">
-        <v>0.1177376203333438</v>
+        <v>0.03578983484885612</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.79225278441487</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1524663808988294</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.539106317133303</v>
+        <v>1.509317768809552</v>
       </c>
       <c r="C14">
-        <v>0.2660677086321073</v>
+        <v>0.3142803354429304</v>
       </c>
       <c r="D14">
-        <v>0.003676294897365651</v>
+        <v>0.01223765393999088</v>
       </c>
       <c r="E14">
-        <v>0.007705019766997001</v>
+        <v>0.008586786187460893</v>
       </c>
       <c r="F14">
-        <v>2.262510898395192</v>
+        <v>1.624152132383486</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1861310804173115</v>
+        <v>0.1808745388351838</v>
       </c>
       <c r="I14">
-        <v>0.03183932013758373</v>
+        <v>0.02329931675132801</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>1.375353075029423</v>
+        <v>0.9093801113001447</v>
       </c>
       <c r="L14">
-        <v>0.03697423085458773</v>
+        <v>0.3090703706468325</v>
       </c>
       <c r="M14">
-        <v>1.704214975412299</v>
+        <v>0.3715563008110436</v>
       </c>
       <c r="N14">
-        <v>0.09097433416223311</v>
+        <v>0.03961951324984803</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.755848962360801</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1194974060474294</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.522307315369432</v>
+        <v>1.493594930667228</v>
       </c>
       <c r="C15">
-        <v>0.2631963866126341</v>
+        <v>0.3095693666323029</v>
       </c>
       <c r="D15">
-        <v>0.003843105580115136</v>
+        <v>0.0122838962625238</v>
       </c>
       <c r="E15">
-        <v>0.00770077950510295</v>
+        <v>0.008542018241895155</v>
       </c>
       <c r="F15">
-        <v>2.180517466958747</v>
+        <v>1.574737862692729</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1993861273887489</v>
+        <v>0.1939553589878784</v>
       </c>
       <c r="I15">
-        <v>0.03296093852107784</v>
+        <v>0.0241652818040059</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657191606</v>
       </c>
       <c r="K15">
-        <v>1.324383619221514</v>
+        <v>0.8828261779029489</v>
       </c>
       <c r="L15">
-        <v>0.03749446254114197</v>
+        <v>0.300574761682789</v>
       </c>
       <c r="M15">
-        <v>1.685798060150944</v>
+        <v>0.360036691765437</v>
       </c>
       <c r="N15">
-        <v>0.08459185689875426</v>
+        <v>0.04090800120529892</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.735704805027098</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1115456783595974</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.427717374508489</v>
+        <v>1.400414412324295</v>
       </c>
       <c r="C16">
-        <v>0.2458727567494918</v>
+        <v>0.2891878937925583</v>
       </c>
       <c r="D16">
-        <v>0.003905940448971634</v>
+        <v>0.01151639050861064</v>
       </c>
       <c r="E16">
-        <v>0.007157295094823768</v>
+        <v>0.008019301678189983</v>
       </c>
       <c r="F16">
-        <v>2.12884978632114</v>
+        <v>1.555258787361637</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1903065485740711</v>
+        <v>0.1841434269858695</v>
       </c>
       <c r="I16">
-        <v>0.03750546046356185</v>
+        <v>0.02756953724892863</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>1.301682626030313</v>
+        <v>0.8811918691252671</v>
       </c>
       <c r="L16">
-        <v>0.03564643560948788</v>
+        <v>0.3033273100343159</v>
       </c>
       <c r="M16">
-        <v>1.580515164348327</v>
+        <v>0.3552213630797709</v>
       </c>
       <c r="N16">
-        <v>0.08122936943355796</v>
+        <v>0.0386773058618779</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.626761243817612</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.107132431713751</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.369859442481442</v>
+        <v>1.341738048447695</v>
       </c>
       <c r="C17">
-        <v>0.2355954096266686</v>
+        <v>0.2797754342218752</v>
       </c>
       <c r="D17">
-        <v>0.003711538602633624</v>
+        <v>0.01083405185693564</v>
       </c>
       <c r="E17">
-        <v>0.006760190342802452</v>
+        <v>0.007731991300131136</v>
       </c>
       <c r="F17">
-        <v>2.247096441320124</v>
+        <v>1.638169495359847</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1545121134063265</v>
+        <v>0.1480038082321613</v>
       </c>
       <c r="I17">
-        <v>0.03990310692482968</v>
+        <v>0.02942594223944628</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234516</v>
       </c>
       <c r="K17">
-        <v>1.384024150464143</v>
+        <v>0.9342278839917668</v>
       </c>
       <c r="L17">
-        <v>0.03326719592992955</v>
+        <v>0.3241308217580823</v>
       </c>
       <c r="M17">
-        <v>1.516593918822082</v>
+        <v>0.3736583652178282</v>
       </c>
       <c r="N17">
-        <v>0.09218279335428292</v>
+        <v>0.03430066893752048</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.562819562965785</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1204100525884542</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.337111613067151</v>
+        <v>1.306250792651156</v>
       </c>
       <c r="C18">
-        <v>0.2293720138151372</v>
+        <v>0.2778598484622421</v>
       </c>
       <c r="D18">
-        <v>0.003437278992257653</v>
+        <v>0.01001989018938687</v>
       </c>
       <c r="E18">
-        <v>0.007381777294487968</v>
+        <v>0.008584379807015541</v>
       </c>
       <c r="F18">
-        <v>2.551466892361788</v>
+        <v>1.835104593505378</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.101931622860981</v>
+        <v>0.09546864743025196</v>
       </c>
       <c r="I18">
-        <v>0.04003802812270507</v>
+        <v>0.02951676298156869</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146309314</v>
       </c>
       <c r="K18">
-        <v>1.586759257969135</v>
+        <v>1.05238841389663</v>
       </c>
       <c r="L18">
-        <v>0.03437282184863388</v>
+        <v>0.3677286136779543</v>
       </c>
       <c r="M18">
-        <v>1.479892550895983</v>
+        <v>0.4181422612724432</v>
       </c>
       <c r="N18">
-        <v>0.1191743897711035</v>
+        <v>0.03116392072544549</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.529311882539503</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.153367834187641</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.325764883468111</v>
+        <v>1.291085055173227</v>
       </c>
       <c r="C19">
-        <v>0.2282458402223995</v>
+        <v>0.2833245501329316</v>
       </c>
       <c r="D19">
-        <v>0.003535427801430568</v>
+        <v>0.009540992696091877</v>
       </c>
       <c r="E19">
-        <v>0.01019836242551975</v>
+        <v>0.01176095723199033</v>
       </c>
       <c r="F19">
-        <v>2.989571040433759</v>
+        <v>2.110899482690627</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.05506183589662328</v>
+        <v>0.04901471353897335</v>
       </c>
       <c r="I19">
-        <v>0.0389062980604864</v>
+        <v>0.02887869831444423</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768449891</v>
       </c>
       <c r="K19">
-        <v>1.877653834019341</v>
+        <v>1.21631007555829</v>
       </c>
       <c r="L19">
-        <v>0.04435627284351007</v>
+        <v>0.4273057446139248</v>
       </c>
       <c r="M19">
-        <v>1.468823316359419</v>
+        <v>0.4809487064322511</v>
       </c>
       <c r="N19">
-        <v>0.1622774651128438</v>
+        <v>0.03455443481538722</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.523500636291345</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2056279531982028</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.377013690421165</v>
+        <v>1.335053457697029</v>
       </c>
       <c r="C20">
-        <v>0.238903312044215</v>
+        <v>0.3070701195837273</v>
       </c>
       <c r="D20">
-        <v>0.004425165629206917</v>
+        <v>0.009354071444729328</v>
       </c>
       <c r="E20">
-        <v>0.01885925517707854</v>
+        <v>0.02112553115445337</v>
       </c>
       <c r="F20">
-        <v>3.827217467502976</v>
+        <v>2.621885261083818</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02255227809694871</v>
+        <v>0.01784513480825511</v>
       </c>
       <c r="I20">
-        <v>0.0332341846476174</v>
+        <v>0.02494120063014371</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823846983</v>
       </c>
       <c r="K20">
-        <v>2.43396551948193</v>
+        <v>1.517873633973096</v>
       </c>
       <c r="L20">
-        <v>0.07816813284429003</v>
+        <v>0.5325353801596293</v>
       </c>
       <c r="M20">
-        <v>1.528173249544636</v>
+        <v>0.6013149475037096</v>
       </c>
       <c r="N20">
-        <v>0.2477553658803231</v>
+        <v>0.05499834754975197</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.594041003694969</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3091099114419649</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.549138581477763</v>
+        <v>1.501506848496547</v>
       </c>
       <c r="C21">
-        <v>0.2714378978198511</v>
+        <v>0.3495801517997279</v>
       </c>
       <c r="D21">
-        <v>0.004380755906254308</v>
+        <v>0.01042934787997751</v>
       </c>
       <c r="E21">
-        <v>0.02220924376697653</v>
+        <v>0.02468797175840898</v>
       </c>
       <c r="F21">
-        <v>4.211778126924912</v>
+        <v>2.829695915866225</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.01583050657915441</v>
+        <v>0.01246001124477797</v>
       </c>
       <c r="I21">
-        <v>0.02511597596692283</v>
+        <v>0.01899602657730437</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752018</v>
       </c>
       <c r="K21">
-        <v>2.667934989884159</v>
+        <v>1.620990802652102</v>
       </c>
       <c r="L21">
-        <v>0.09058470969535648</v>
+        <v>0.5561979349700366</v>
       </c>
       <c r="M21">
-        <v>1.72149065560393</v>
+        <v>0.6564155823050584</v>
       </c>
       <c r="N21">
-        <v>0.2841210390492108</v>
+        <v>0.06269836199975742</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.797096142685888</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.3540286383000648</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.662973320778264</v>
+        <v>1.61151400350667</v>
       </c>
       <c r="C22">
-        <v>0.2922536343155286</v>
+        <v>0.3765463942428369</v>
       </c>
       <c r="D22">
-        <v>0.004322228143974316</v>
+        <v>0.01098127402577731</v>
       </c>
       <c r="E22">
-        <v>0.02392950947240458</v>
+        <v>0.02650726351770416</v>
       </c>
       <c r="F22">
-        <v>4.444147681205152</v>
+        <v>2.954197490180917</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.01232351856274855</v>
+        <v>0.009675069511131895</v>
       </c>
       <c r="I22">
-        <v>0.02025754594460061</v>
+        <v>0.01529471817649419</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>2.809078938243715</v>
+        <v>1.682318738602007</v>
       </c>
       <c r="L22">
-        <v>0.09717737031336071</v>
+        <v>0.5689586154169959</v>
       </c>
       <c r="M22">
-        <v>1.848125867237684</v>
+        <v>0.6911285542528063</v>
       </c>
       <c r="N22">
-        <v>0.3032588286082216</v>
+        <v>0.06668574938787941</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.929589961239742</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.378022480281615</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.60281643647258</v>
+        <v>1.553312663974822</v>
       </c>
       <c r="C23">
-        <v>0.2801973235767434</v>
+        <v>0.3612405377348864</v>
       </c>
       <c r="D23">
-        <v>0.004403956139819698</v>
+        <v>0.0104950364721681</v>
       </c>
       <c r="E23">
-        <v>0.02299499646113112</v>
+        <v>0.02552228370362997</v>
       </c>
       <c r="F23">
-        <v>4.337874080541013</v>
+        <v>2.89931777915973</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.01410047062423891</v>
+        <v>0.01108853875246218</v>
       </c>
       <c r="I23">
-        <v>0.02237031077245</v>
+        <v>0.0167621160337097</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787805219</v>
       </c>
       <c r="K23">
-        <v>2.747332913524517</v>
+        <v>1.657834769697772</v>
       </c>
       <c r="L23">
-        <v>0.09405152882647627</v>
+        <v>0.5650676842719875</v>
       </c>
       <c r="M23">
-        <v>1.779677073893964</v>
+        <v>0.6758004085339664</v>
       </c>
       <c r="N23">
-        <v>0.2923444751149873</v>
+        <v>0.06479668888481527</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.858158482825274</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.3645776502354607</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.37526336458518</v>
+        <v>1.332781768402725</v>
       </c>
       <c r="C24">
-        <v>0.2370969368251394</v>
+        <v>0.3059564302469369</v>
       </c>
       <c r="D24">
-        <v>0.004612496626362761</v>
+        <v>0.009019562078645293</v>
       </c>
       <c r="E24">
-        <v>0.01955618956714034</v>
+        <v>0.02187676798316396</v>
       </c>
       <c r="F24">
-        <v>3.90816204176619</v>
+        <v>2.673342675340749</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.0221305744377116</v>
+        <v>0.01749167480306979</v>
       </c>
       <c r="I24">
-        <v>0.03244585721625537</v>
+        <v>0.0241292864914433</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.07636882555349711</v>
       </c>
       <c r="K24">
-        <v>2.491669442223468</v>
+        <v>1.551433031162546</v>
       </c>
       <c r="L24">
-        <v>0.08168486398587049</v>
+        <v>0.544805716167005</v>
       </c>
       <c r="M24">
-        <v>1.524071910539249</v>
+        <v>0.6141053832322925</v>
       </c>
       <c r="N24">
-        <v>0.2524724671905005</v>
+        <v>0.05729732529652765</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.59059294373273</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.3150845047326811</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.132192372193288</v>
+        <v>1.096212977212616</v>
       </c>
       <c r="C25">
-        <v>0.1925738188881212</v>
+        <v>0.2486731194165941</v>
       </c>
       <c r="D25">
-        <v>0.004800638877207497</v>
+        <v>0.007525792963601674</v>
       </c>
       <c r="E25">
-        <v>0.01598289366406114</v>
+        <v>0.01805817648323504</v>
       </c>
       <c r="F25">
-        <v>3.44809866848226</v>
+        <v>2.430887569310173</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.03322520670206552</v>
+        <v>0.02638411408064645</v>
       </c>
       <c r="I25">
-        <v>0.04612562587991764</v>
+        <v>0.03424856664806875</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.0759519602266292</v>
       </c>
       <c r="K25">
-        <v>2.216596152124666</v>
+        <v>1.436048841126357</v>
       </c>
       <c r="L25">
-        <v>0.06854579678202199</v>
+        <v>0.5210630459548469</v>
       </c>
       <c r="M25">
-        <v>1.252633865324725</v>
+        <v>0.5512016003710229</v>
       </c>
       <c r="N25">
-        <v>0.2100548682253844</v>
+        <v>0.04927046255956924</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.305415989273456</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2624291020461982</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
